--- a/project.xlsx
+++ b/project.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD90FFF3-FC2E-44F8-9C79-17BE1C25C6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Intel" sheetId="4" r:id="rId1"/>
     <sheet name="AMD" sheetId="6" r:id="rId2"/>
     <sheet name="CPU" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="Cooler" sheetId="8" r:id="rId5"/>
+    <sheet name="Munka3" sheetId="10" r:id="rId6"/>
+    <sheet name="Munka4" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="283">
   <si>
     <t>Suffix</t>
   </si>
@@ -656,13 +658,229 @@
   </si>
   <si>
     <t>Ryzen 3990X</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>be quiet!</t>
+  </si>
+  <si>
+    <t>Dark Rock Pro 4</t>
+  </si>
+  <si>
+    <t>162.8 mm</t>
+  </si>
+  <si>
+    <t>Cooler Master</t>
+  </si>
+  <si>
+    <t>Hyper 212 RGB</t>
+  </si>
+  <si>
+    <t>159 mm</t>
+  </si>
+  <si>
+    <t>Noctua</t>
+  </si>
+  <si>
+    <t>NH-D15</t>
+  </si>
+  <si>
+    <t>165 mm</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>NZXT</t>
+  </si>
+  <si>
+    <t>Kraken X53</t>
+  </si>
+  <si>
+    <t>Kraken Z73</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Fan size</t>
+  </si>
+  <si>
+    <t>240 mm</t>
+  </si>
+  <si>
+    <t>360 mm</t>
+  </si>
+  <si>
+    <t>Kraken X63</t>
+  </si>
+  <si>
+    <t>280 mm</t>
+  </si>
+  <si>
+    <t>masterliquid ml360 RGB</t>
+  </si>
+  <si>
+    <t>masterliquid ml240l RGB</t>
+  </si>
+  <si>
+    <t>CPU:</t>
+  </si>
+  <si>
+    <t>GPU:</t>
+  </si>
+  <si>
+    <t>Video chipset</t>
+  </si>
+  <si>
+    <t>Memory Size</t>
+  </si>
+  <si>
+    <t>Memory Type</t>
+  </si>
+  <si>
+    <t>Memory Bandwidth</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>Motherboard:</t>
+  </si>
+  <si>
+    <t>Form Factor</t>
+  </si>
+  <si>
+    <t>M.2 Slots</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>CAS Latency</t>
+  </si>
+  <si>
+    <t>Wattage</t>
+  </si>
+  <si>
+    <t>Efficiency Rating</t>
+  </si>
+  <si>
+    <t>Modular</t>
+  </si>
+  <si>
+    <t>Max GPU Length</t>
+  </si>
+  <si>
+    <t>Manufacturer_id</t>
+  </si>
+  <si>
+    <t>Socket_id</t>
+  </si>
+  <si>
+    <t>Socket:</t>
+  </si>
+  <si>
+    <t>Manufacturer:</t>
+  </si>
+  <si>
+    <t>cpu_id</t>
+  </si>
+  <si>
+    <t>gpu_id</t>
+  </si>
+  <si>
+    <t>motherboard_id</t>
+  </si>
+  <si>
+    <t>ff_id</t>
+  </si>
+  <si>
+    <t>Form Factor:</t>
+  </si>
+  <si>
+    <t>Chipset:</t>
+  </si>
+  <si>
+    <t>chipset_id</t>
+  </si>
+  <si>
+    <t>chipset</t>
+  </si>
+  <si>
+    <t>cooler_id</t>
+  </si>
+  <si>
+    <t>CPU_cooler:</t>
+  </si>
+  <si>
+    <t>gpu length:</t>
+  </si>
+  <si>
+    <t>length_id</t>
+  </si>
+  <si>
+    <t>RAM:</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>ram type:</t>
+  </si>
+  <si>
+    <t>ram_type_id</t>
+  </si>
+  <si>
+    <t>storage type:</t>
+  </si>
+  <si>
+    <t>storage_id</t>
+  </si>
+  <si>
+    <t>storage type</t>
+  </si>
+  <si>
+    <t>Power Supply:</t>
+  </si>
+  <si>
+    <t>pw_id</t>
+  </si>
+  <si>
+    <t>Case:</t>
+  </si>
+  <si>
+    <t>case_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,8 +960,36 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF191B2B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -771,6 +1017,22 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,10 +1281,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1145,9 +1409,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Rossz" xfId="1" builtinId="27"/>
+    <cellStyle name="Semleges" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1424,11 +1718,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2992,10 +3286,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -4317,7 +4611,7 @@
       <c r="N52" s="17"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N1:N66">
+  <sortState ref="N1:N66">
     <sortCondition ref="N1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4326,7 +4620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4466,11 +4760,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF087270-F8D8-4CC4-828E-2FD49E3B4A39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="H1" sqref="H1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5039,4 +5333,1392 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1500</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="51">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1500</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1800</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:V37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:L37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="20.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" s="57"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" s="57"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="H12" s="61"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="59"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="F13" s="59"/>
+      <c r="G13" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="H13" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>255</v>
+      </c>
+      <c r="J13" s="59"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="57"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="H15" s="57"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="K15" s="57"/>
+      <c r="L15" s="59"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="59"/>
+      <c r="G16" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>273</v>
+      </c>
+      <c r="I16" s="59"/>
+      <c r="J16" s="58" t="s">
+        <v>277</v>
+      </c>
+      <c r="K16" s="57" t="s">
+        <v>278</v>
+      </c>
+      <c r="L16" s="59"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="59"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19" s="59"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="59"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="F22" s="61" t="s">
+        <v>241</v>
+      </c>
+      <c r="G22" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="I22" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="J22" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="K22" s="57"/>
+      <c r="L22" s="59"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="59"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="G25" s="59"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="59"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="F28" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="H28" s="59"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="59"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="B31" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>251</v>
+      </c>
+      <c r="F31" s="59"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="59"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="58" t="s">
+        <v>280</v>
+      </c>
+      <c r="B34" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="F34" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="G34" s="59"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="57" t="s">
+        <v>281</v>
+      </c>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="59"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="B37" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="E37" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="59"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" s="57"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="H1" s="61"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="59"/>
+      <c r="G2" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2" s="59"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="57"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="H4" s="57"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="K4" s="57"/>
+      <c r="L4" s="59"/>
+    </row>
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="59"/>
+      <c r="D5" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" s="59"/>
+      <c r="G5" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>273</v>
+      </c>
+      <c r="I5" s="59"/>
+      <c r="J5" s="58" t="s">
+        <v>277</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>278</v>
+      </c>
+      <c r="L5" s="59"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+    </row>
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="59"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="59"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+    </row>
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="59"/>
+    </row>
+    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="H11" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="I11" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="J11" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="K11" s="57"/>
+      <c r="L11" s="59"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+    </row>
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>277</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+    </row>
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="59"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="H17" s="59"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+    </row>
+    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" s="59"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+    </row>
+    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="59"/>
+    </row>
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="58" t="s">
+        <v>280</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="G23" s="59"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+    </row>
+    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="57" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="59"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/project.xlsx
+++ b/project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Intel" sheetId="4" r:id="rId1"/>
@@ -1721,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3290,7 +3290,7 @@
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4764,7 +4764,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6239,7 +6239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>

--- a/project.xlsx
+++ b/project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Intel" sheetId="4" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="CPU" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
     <sheet name="Cooler" sheetId="8" r:id="rId5"/>
-    <sheet name="Munka3" sheetId="10" r:id="rId6"/>
-    <sheet name="Munka4" sheetId="11" r:id="rId7"/>
+    <sheet name="Munka4" sheetId="11" r:id="rId6"/>
+    <sheet name="Munka1" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="292">
   <si>
     <t>Suffix</t>
   </si>
@@ -771,9 +771,6 @@
     <t>Form Factor</t>
   </si>
   <si>
-    <t>M.2 Slots</t>
-  </si>
-  <si>
     <t>Speed</t>
   </si>
   <si>
@@ -874,6 +871,36 @@
   </si>
   <si>
     <t>case_id</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>Asus</t>
+  </si>
+  <si>
+    <t>Corsair</t>
+  </si>
+  <si>
+    <t>EVGA</t>
+  </si>
+  <si>
+    <t>Gigabyte</t>
+  </si>
+  <si>
+    <t>MSI</t>
+  </si>
+  <si>
+    <t>NVIDIA</t>
+  </si>
+  <si>
+    <t>Crucial</t>
+  </si>
+  <si>
+    <t>G.Skill</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1313,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1416,12 +1443,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1721,7 +1742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -5340,7 +5361,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5542,705 +5563,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V37"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:L37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="20.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
-        <v>259</v>
-      </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="61" t="s">
-        <v>264</v>
-      </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="61" t="s">
-        <v>270</v>
-      </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="59"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>211</v>
-      </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="E13" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="H13" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="I13" s="61" t="s">
-        <v>255</v>
-      </c>
-      <c r="J13" s="59"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
-        <v>258</v>
-      </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="61" t="s">
-        <v>265</v>
-      </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="57" t="s">
-        <v>274</v>
-      </c>
-      <c r="H15" s="57"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="57" t="s">
-        <v>276</v>
-      </c>
-      <c r="K15" s="57"/>
-      <c r="L15" s="59"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="B16" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="62" t="s">
-        <v>266</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>267</v>
-      </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="H16" s="57" t="s">
-        <v>273</v>
-      </c>
-      <c r="I16" s="59"/>
-      <c r="J16" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="K16" s="57" t="s">
-        <v>278</v>
-      </c>
-      <c r="L16" s="59"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="59"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
-        <v>260</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="D19" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" s="59"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="59"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>271</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>239</v>
-      </c>
-      <c r="E22" s="61" t="s">
-        <v>240</v>
-      </c>
-      <c r="F22" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="G22" s="61" t="s">
-        <v>242</v>
-      </c>
-      <c r="H22" s="61" t="s">
-        <v>243</v>
-      </c>
-      <c r="I22" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="J22" s="61" t="s">
-        <v>245</v>
-      </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="59"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
-        <v>246</v>
-      </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="59"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
-        <v>262</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>266</v>
-      </c>
-      <c r="E25" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F25" s="61" t="s">
-        <v>248</v>
-      </c>
-      <c r="G25" s="59"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="59"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
-        <v>268</v>
-      </c>
-      <c r="B28" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="C28" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="D28" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="F28" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="G28" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="H28" s="59"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="56"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="59"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="B31" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="C31" s="61" t="s">
-        <v>249</v>
-      </c>
-      <c r="D31" s="61" t="s">
-        <v>250</v>
-      </c>
-      <c r="E31" s="61" t="s">
-        <v>251</v>
-      </c>
-      <c r="F31" s="59"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="57" t="s">
-        <v>279</v>
-      </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="59"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="58" t="s">
-        <v>280</v>
-      </c>
-      <c r="B34" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="C34" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="D34" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="E34" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="F34" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="G34" s="59"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
-        <v>281</v>
-      </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="59"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="B37" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="C37" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="D37" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="E37" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="59"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6257,468 +5583,557 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="61" t="s">
-        <v>264</v>
-      </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="61" t="s">
-        <v>270</v>
-      </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="59"/>
+      <c r="A1" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="55"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="H1" s="59"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="57"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="B2" s="57" t="s">
+      <c r="A2" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="61" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="H2" s="61" t="s">
+      <c r="F2" s="57"/>
+      <c r="G2" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="H2" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="I2" s="61" t="s">
-        <v>255</v>
-      </c>
-      <c r="J2" s="59"/>
+      <c r="I2" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="J2" s="57"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
-        <v>258</v>
-      </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="61" t="s">
+      <c r="A4" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="55" t="s">
+        <v>273</v>
+      </c>
+      <c r="H4" s="55"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="K4" s="55"/>
+      <c r="L4" s="57"/>
+    </row>
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="57" t="s">
+      <c r="E5" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5" s="57"/>
+      <c r="G5" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="57" t="s">
+      <c r="H5" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="I5" s="57"/>
+      <c r="J5" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="59"/>
-    </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="62" t="s">
-        <v>266</v>
-      </c>
-      <c r="E5" s="57" t="s">
+      <c r="K5" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="L5" s="57"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+    </row>
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="57"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="57"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+    </row>
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="57"/>
+    </row>
+    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="J11" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="K11" s="55"/>
+      <c r="L11" s="57"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+    </row>
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+    </row>
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="57"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="s">
         <v>267</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="H5" s="57" t="s">
-        <v>273</v>
-      </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="K5" s="57" t="s">
-        <v>278</v>
-      </c>
-      <c r="L5" s="59"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-    </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="59"/>
-    </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
-        <v>260</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="D8" s="60" t="s">
+      <c r="B17" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="59"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-    </row>
-    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="59"/>
-    </row>
-    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="C11" s="58" t="s">
+      <c r="E17" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="H17" s="57"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+    </row>
+    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="D11" s="61" t="s">
-        <v>239</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>240</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="G11" s="61" t="s">
-        <v>242</v>
-      </c>
-      <c r="H11" s="61" t="s">
-        <v>243</v>
-      </c>
-      <c r="I11" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="J11" s="61" t="s">
-        <v>245</v>
-      </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="59"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-    </row>
-    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
-        <v>246</v>
-      </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
-        <v>262</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>266</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="G14" s="57" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-    </row>
-    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="59"/>
-    </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
-        <v>268</v>
-      </c>
-      <c r="B17" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="F17" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="H17" s="59"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-    </row>
-    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="59"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="C20" s="61" t="s">
+      <c r="A20" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="E20" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="E20" s="61" t="s">
-        <v>251</v>
-      </c>
-      <c r="F20" s="59"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="57"/>
+    </row>
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="56" t="s">
         <v>279</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="59"/>
-    </row>
-    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
+      <c r="B23" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="G23" s="57"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+    </row>
+    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
         <v>280</v>
       </c>
-      <c r="B23" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="E23" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="G23" s="59"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-    </row>
-    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="56" t="s">
         <v>281</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="B26" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="E26" s="57" t="s">
+      <c r="B26" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="E26" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="59"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A13">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/project.xlsx
+++ b/project.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CB2F3C-0002-46E8-924B-6D44C84585FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intel" sheetId="4" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="321">
   <si>
     <t>Suffix</t>
   </si>
@@ -901,12 +902,99 @@
   </si>
   <si>
     <t>G.Skill</t>
+  </si>
+  <si>
+    <t>ATX</t>
+  </si>
+  <si>
+    <t>E-ATX</t>
+  </si>
+  <si>
+    <t>Micro ATX</t>
+  </si>
+  <si>
+    <t>Mini ITX</t>
+  </si>
+  <si>
+    <t>HDD-7200rpm</t>
+  </si>
+  <si>
+    <t>SSD-2.5</t>
+  </si>
+  <si>
+    <t>SSD M.2</t>
+  </si>
+  <si>
+    <t>H610</t>
+  </si>
+  <si>
+    <t>H670</t>
+  </si>
+  <si>
+    <t>Z690</t>
+  </si>
+  <si>
+    <t>B660</t>
+  </si>
+  <si>
+    <t>X570</t>
+  </si>
+  <si>
+    <t>PRO 565</t>
+  </si>
+  <si>
+    <t>PRO 500</t>
+  </si>
+  <si>
+    <t>B550</t>
+  </si>
+  <si>
+    <t>A520</t>
+  </si>
+  <si>
+    <t>PRO 560</t>
+  </si>
+  <si>
+    <t>B550A</t>
+  </si>
+  <si>
+    <t>X470</t>
+  </si>
+  <si>
+    <t>B450</t>
+  </si>
+  <si>
+    <t>X370</t>
+  </si>
+  <si>
+    <t>X300</t>
+  </si>
+  <si>
+    <t>B350</t>
+  </si>
+  <si>
+    <t>B300</t>
+  </si>
+  <si>
+    <t>A320</t>
+  </si>
+  <si>
+    <t>A300</t>
+  </si>
+  <si>
+    <t>480X</t>
+  </si>
+  <si>
+    <t>570X</t>
+  </si>
+  <si>
+    <t>580X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1460,9 +1548,9 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
-    <cellStyle name="Rossz" xfId="1" builtinId="27"/>
-    <cellStyle name="Semleges" xfId="2" builtinId="28"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1739,11 +1827,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3307,11 +3395,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4632,7 +4720,7 @@
       <c r="N52" s="17"/>
     </row>
   </sheetData>
-  <sortState ref="N1:N66">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N1:N66">
     <sortCondition ref="N1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4641,7 +4729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4781,11 +4869,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5357,11 +5445,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5562,11 +5650,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A8" sqref="A8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6050,88 +6138,265 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="11"/>
+    <col min="9" max="9" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="15">
+        <v>1200</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="E1" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1700</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="E2" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="11" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="E3" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="11" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="E4" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="I5" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="11" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="I6" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="11" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="I7" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="11" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="I8" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="11" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="I9" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="11" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="I10" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="11" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="I11" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="I12" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="11" t="s">
         <v>226</v>
       </c>
+      <c r="I13" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="11" t="s">
+        <v>320</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A13">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C13">
+    <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/project.xlsx
+++ b/project.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CB2F3C-0002-46E8-924B-6D44C84585FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85FF30E-3BA0-40F2-A47C-3EDD5714CE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intel" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="324">
   <si>
     <t>Suffix</t>
   </si>
@@ -989,6 +989,15 @@
   </si>
   <si>
     <t>580X</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Read/write speed</t>
+  </si>
+  <si>
+    <t>Storage:</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1113,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1148,6 +1157,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,7 +1416,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1546,6 +1561,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1830,7 +1847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -5651,10 +5668,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6131,6 +6148,44 @@
       <c r="F26" s="57"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+    </row>
+    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="63"/>
+    </row>
+    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>321</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>322</v>
+      </c>
+      <c r="E29" s="63"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project.xlsx
+++ b/project.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85FF30E-3BA0-40F2-A47C-3EDD5714CE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Intel" sheetId="4" r:id="rId1"/>
@@ -15,6 +14,7 @@
     <sheet name="Cooler" sheetId="8" r:id="rId5"/>
     <sheet name="Munka4" sheetId="11" r:id="rId6"/>
     <sheet name="Munka1" sheetId="12" r:id="rId7"/>
+    <sheet name="Munka2" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="441">
   <si>
     <t>Suffix</t>
   </si>
@@ -998,12 +998,363 @@
   </si>
   <si>
     <t>Storage:</t>
+  </si>
+  <si>
+    <t>Core Clock</t>
+  </si>
+  <si>
+    <t>Boost Clock</t>
+  </si>
+  <si>
+    <t>GeForce GTX</t>
+  </si>
+  <si>
+    <t>2GB</t>
+  </si>
+  <si>
+    <t>GDDR5</t>
+  </si>
+  <si>
+    <t>1442 MHz</t>
+  </si>
+  <si>
+    <t>1569 MHz</t>
+  </si>
+  <si>
+    <t>1050Ti</t>
+  </si>
+  <si>
+    <t>4GB</t>
+  </si>
+  <si>
+    <t>1379 MHz</t>
+  </si>
+  <si>
+    <t>1506 MHz</t>
+  </si>
+  <si>
+    <t>3GB</t>
+  </si>
+  <si>
+    <t>1594 MHz</t>
+  </si>
+  <si>
+    <t>1809 MHz</t>
+  </si>
+  <si>
+    <t>6GB</t>
+  </si>
+  <si>
+    <t>1620 MHz</t>
+  </si>
+  <si>
+    <t>1873 MHz</t>
+  </si>
+  <si>
+    <t>8GB</t>
+  </si>
+  <si>
+    <t>1721 MHz</t>
+  </si>
+  <si>
+    <t>1070Ti</t>
+  </si>
+  <si>
+    <t>1607 MHz</t>
+  </si>
+  <si>
+    <t>1759 MHz</t>
+  </si>
+  <si>
+    <t>1936 MHz</t>
+  </si>
+  <si>
+    <t>1080Ti</t>
+  </si>
+  <si>
+    <t>11GB</t>
+  </si>
+  <si>
+    <t>GDDR5X</t>
+  </si>
+  <si>
+    <t>1708 MHz</t>
+  </si>
+  <si>
+    <t>1392 MHz</t>
+  </si>
+  <si>
+    <t>1531 MHz</t>
+  </si>
+  <si>
+    <t>1354 MHz</t>
+  </si>
+  <si>
+    <t>1468 MHz</t>
+  </si>
+  <si>
+    <t>1556 MHz</t>
+  </si>
+  <si>
+    <t>1797 MHz</t>
+  </si>
+  <si>
+    <t>1582 MHz</t>
+  </si>
+  <si>
+    <t>1771 MHz</t>
+  </si>
+  <si>
+    <t>1632 MHz</t>
+  </si>
+  <si>
+    <t>1657 MHz</t>
+  </si>
+  <si>
+    <t>1746 MHz</t>
+  </si>
+  <si>
+    <t>GDDR6</t>
+  </si>
+  <si>
+    <t>1410 MHz</t>
+  </si>
+  <si>
+    <t>1680 MHz</t>
+  </si>
+  <si>
+    <t>1650S</t>
+  </si>
+  <si>
+    <t>1530 MHz</t>
+  </si>
+  <si>
+    <t>1815 MHz</t>
+  </si>
+  <si>
+    <t>1590 MHz</t>
+  </si>
+  <si>
+    <t>1740 MHz</t>
+  </si>
+  <si>
+    <t>1845 MHz</t>
+  </si>
+  <si>
+    <t>1660S</t>
+  </si>
+  <si>
+    <t>1875 MHz</t>
+  </si>
+  <si>
+    <t>1660Ti</t>
+  </si>
+  <si>
+    <t>1500 MHz</t>
+  </si>
+  <si>
+    <t>1890 MHz</t>
+  </si>
+  <si>
+    <t>1860 MHz</t>
+  </si>
+  <si>
+    <t>1709 MHz</t>
+  </si>
+  <si>
+    <t>1683 MHz</t>
+  </si>
+  <si>
+    <t>1733 MHz</t>
+  </si>
+  <si>
+    <t>1480 MHz</t>
+  </si>
+  <si>
+    <t>GeForce RTX</t>
+  </si>
+  <si>
+    <t>1365 MHz</t>
+  </si>
+  <si>
+    <t>2060S</t>
+  </si>
+  <si>
+    <t>2070S</t>
+  </si>
+  <si>
+    <t>1635 MHz</t>
+  </si>
+  <si>
+    <t>1935 MHz</t>
+  </si>
+  <si>
+    <t>1515 MHz</t>
+  </si>
+  <si>
+    <t>2080S</t>
+  </si>
+  <si>
+    <t>1650 MHz</t>
+  </si>
+  <si>
+    <t>2080Ti</t>
+  </si>
+  <si>
+    <t>1350 MHz</t>
+  </si>
+  <si>
+    <t>1770 MHz</t>
+  </si>
+  <si>
+    <t>1470 MHz</t>
+  </si>
+  <si>
+    <t>1605 MHz</t>
+  </si>
+  <si>
+    <t>1710 MHz</t>
+  </si>
+  <si>
+    <t>12GB</t>
+  </si>
+  <si>
+    <t>1320 MHz</t>
+  </si>
+  <si>
+    <t>1807 MHz</t>
+  </si>
+  <si>
+    <t>3060Ti</t>
+  </si>
+  <si>
+    <t>1905 MHz</t>
+  </si>
+  <si>
+    <t>3070Ti</t>
+  </si>
+  <si>
+    <t>GDDR6X</t>
+  </si>
+  <si>
+    <t>1575 MHz</t>
+  </si>
+  <si>
+    <t>10GB</t>
+  </si>
+  <si>
+    <t>1440 MHz</t>
+  </si>
+  <si>
+    <t>3080Ti</t>
+  </si>
+  <si>
+    <t>24GB</t>
+  </si>
+  <si>
+    <t>1395 MHz</t>
+  </si>
+  <si>
+    <t>1867 MHz</t>
+  </si>
+  <si>
+    <t>1785 MHz</t>
+  </si>
+  <si>
+    <t>Radeon RX</t>
+  </si>
+  <si>
+    <t>5500 XT</t>
+  </si>
+  <si>
+    <t>1865 MHz</t>
+  </si>
+  <si>
+    <t>5600 XT</t>
+  </si>
+  <si>
+    <t>1247 MHz</t>
+  </si>
+  <si>
+    <t>1610 MHz</t>
+  </si>
+  <si>
+    <t>1750 MHz</t>
+  </si>
+  <si>
+    <t>5700 XT</t>
+  </si>
+  <si>
+    <t>2035 MHz</t>
+  </si>
+  <si>
+    <t>1626 MHz</t>
+  </si>
+  <si>
+    <t>2491 MHz</t>
+  </si>
+  <si>
+    <t>6600 XT</t>
+  </si>
+  <si>
+    <t>1968 MHz</t>
+  </si>
+  <si>
+    <t>2607 MHz</t>
+  </si>
+  <si>
+    <t>6700 XT</t>
+  </si>
+  <si>
+    <t>2321 MHz</t>
+  </si>
+  <si>
+    <t>2581 MHz</t>
+  </si>
+  <si>
+    <t>16GB</t>
+  </si>
+  <si>
+    <t>1700 MHz</t>
+  </si>
+  <si>
+    <t>2190 MHz</t>
+  </si>
+  <si>
+    <t>6800 XT</t>
+  </si>
+  <si>
+    <t>1825 MHz</t>
+  </si>
+  <si>
+    <t>2340 MHz</t>
+  </si>
+  <si>
+    <t>6900 XT</t>
+  </si>
+  <si>
+    <t>1685 MHz</t>
+  </si>
+  <si>
+    <t>1565 MHz</t>
+  </si>
+  <si>
+    <t>2155 MHz</t>
+  </si>
+  <si>
+    <t>2310 MHz</t>
+  </si>
+  <si>
+    <t>2015 MHz</t>
+  </si>
+  <si>
+    <t>2365 MHz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1565,9 +1916,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Rossz" xfId="1" builtinId="27"/>
+    <cellStyle name="Semleges" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1844,7 +2195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3412,7 +3763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4737,7 +5088,7 @@
       <c r="N52" s="17"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N1:N66">
+  <sortState ref="N1:N66">
     <sortCondition ref="N1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4746,7 +5097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4886,7 +5237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -5462,7 +5813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5667,10 +6018,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -6193,7 +6544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6450,10 +6801,2356 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C13">
+  <sortState ref="C2:C13">
     <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1050</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="I2" s="11">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="I3" s="11">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1060</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="I4" s="11">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1060</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="I5" s="11">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1070</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="I6" s="11">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="I7" s="11">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1080</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="I8" s="11">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="I9" s="11">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1050</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="I10" s="11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="I11" s="11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1060</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="I12" s="11">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1060</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="I13" s="11">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1070</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="I14" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="I15" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1080</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="I16" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>9</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="I17" s="11">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>2</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1650</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="I18" s="11">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="I19" s="11">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>9</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1650</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I20" s="11">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>9</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="I21" s="11">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1660</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="I22" s="11">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="I23" s="11">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="I24" s="11">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>9</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D25" s="15">
+        <v>1660</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="I25" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>9</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="I26" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>9</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="I27" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>12</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D28" s="15">
+        <v>1060</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="I28" s="11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>12</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D29" s="15">
+        <v>1070</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="I29" s="11">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>12</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="I30" s="11">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>12</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D31" s="15">
+        <v>1080</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="I31" s="11">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>12</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="I32" s="11">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11">
+        <v>2</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D33" s="15">
+        <v>2060</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="I33" s="11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11">
+        <v>2</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="I34" s="11">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11">
+        <v>2</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D35" s="15">
+        <v>2070</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="I35" s="11">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11">
+        <v>2</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="I36" s="11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11">
+        <v>2</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D37" s="15">
+        <v>2080</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="I37" s="11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11">
+        <v>2</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="I38" s="11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11">
+        <v>2</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="I39" s="11">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11">
+        <v>9</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D40" s="15">
+        <v>2060</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="I40" s="11">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>40</v>
+      </c>
+      <c r="B41" s="11">
+        <v>9</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="I41" s="11">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>41</v>
+      </c>
+      <c r="B42" s="11">
+        <v>9</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D42" s="15">
+        <v>2070</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="I42" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>42</v>
+      </c>
+      <c r="B43" s="11">
+        <v>9</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="I43" s="11">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>43</v>
+      </c>
+      <c r="B44" s="11">
+        <v>9</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D44" s="15">
+        <v>2080</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="I44" s="11">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>44</v>
+      </c>
+      <c r="B45" s="11">
+        <v>9</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="I45" s="11">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+      <c r="B46" s="11">
+        <v>9</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="I46" s="11">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>46</v>
+      </c>
+      <c r="B47" s="11">
+        <v>2</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D47" s="15">
+        <v>3060</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="I47" s="11">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+      <c r="B48" s="11">
+        <v>2</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="I48" s="11">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11">
+        <v>2</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D49" s="15">
+        <v>3070</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="I49" s="11">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>49</v>
+      </c>
+      <c r="B50" s="11">
+        <v>2</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="I50" s="11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11">
+        <v>2</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D51" s="15">
+        <v>3080</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="I51" s="11">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>51</v>
+      </c>
+      <c r="B52" s="11">
+        <v>2</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="I52" s="11">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>52</v>
+      </c>
+      <c r="B53" s="11">
+        <v>2</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D53" s="15">
+        <v>3090</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="I53" s="11">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>53</v>
+      </c>
+      <c r="B54" s="11">
+        <v>9</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D54" s="15">
+        <v>3060</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="I54" s="11">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>54</v>
+      </c>
+      <c r="B55" s="11">
+        <v>9</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="I55" s="11">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>55</v>
+      </c>
+      <c r="B56" s="11">
+        <v>9</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D56" s="15">
+        <v>3070</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="I56" s="11">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>56</v>
+      </c>
+      <c r="B57" s="11">
+        <v>9</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="I57" s="11">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>57</v>
+      </c>
+      <c r="B58" s="11">
+        <v>9</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D58" s="15">
+        <v>3080</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="I58" s="11">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>58</v>
+      </c>
+      <c r="B59" s="11">
+        <v>9</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="I59" s="11">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <v>59</v>
+      </c>
+      <c r="B60" s="11">
+        <v>9</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D60" s="15">
+        <v>3090</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="I60" s="11">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
+        <v>60</v>
+      </c>
+      <c r="B61" s="11">
+        <v>2</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="I61" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
+        <v>61</v>
+      </c>
+      <c r="B62" s="11">
+        <v>2</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="I62" s="11">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
+        <v>62</v>
+      </c>
+      <c r="B63" s="11">
+        <v>2</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D63" s="15">
+        <v>5700</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="I63" s="11">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>63</v>
+      </c>
+      <c r="B64" s="11">
+        <v>2</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="I64" s="11">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <v>64</v>
+      </c>
+      <c r="B65" s="11">
+        <v>2</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D65" s="15">
+        <v>6600</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="I65" s="11">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <v>65</v>
+      </c>
+      <c r="B66" s="11">
+        <v>2</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="I66" s="11">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>66</v>
+      </c>
+      <c r="B67" s="11">
+        <v>2</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="I67" s="11">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
+        <v>67</v>
+      </c>
+      <c r="B68" s="11">
+        <v>2</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D68" s="15">
+        <v>6800</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="I68" s="11">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
+        <v>68</v>
+      </c>
+      <c r="B69" s="11">
+        <v>2</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="I69" s="11">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A70" s="11">
+        <v>69</v>
+      </c>
+      <c r="B70" s="11">
+        <v>2</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="I70" s="11">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A71" s="11">
+        <v>70</v>
+      </c>
+      <c r="B71" s="11">
+        <v>9</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="I71" s="11">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
+        <v>71</v>
+      </c>
+      <c r="B72" s="11">
+        <v>9</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="I72" s="11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A73" s="11">
+        <v>72</v>
+      </c>
+      <c r="B73" s="11">
+        <v>9</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D73" s="15">
+        <v>5700</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="I73" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A74" s="11">
+        <v>73</v>
+      </c>
+      <c r="B74" s="11">
+        <v>9</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="I74" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A75" s="11">
+        <v>74</v>
+      </c>
+      <c r="B75" s="11">
+        <v>9</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D75" s="15">
+        <v>6600</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="I75" s="11">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
+        <v>75</v>
+      </c>
+      <c r="B76" s="11">
+        <v>9</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="I76" s="11">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A77" s="11">
+        <v>76</v>
+      </c>
+      <c r="B77" s="11">
+        <v>9</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="I77" s="11">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A78" s="11">
+        <v>77</v>
+      </c>
+      <c r="B78" s="11">
+        <v>9</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D78" s="15">
+        <v>6800</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="I78" s="11">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A79" s="11">
+        <v>78</v>
+      </c>
+      <c r="B79" s="11">
+        <v>9</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="I79" s="11">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A80" s="11">
+        <v>79</v>
+      </c>
+      <c r="B80" s="11">
+        <v>9</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="I80" s="11">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/project.xlsx
+++ b/project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Intel" sheetId="4" r:id="rId1"/>
@@ -13,8 +13,9 @@
     <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
     <sheet name="Cooler" sheetId="8" r:id="rId5"/>
     <sheet name="Munka4" sheetId="11" r:id="rId6"/>
-    <sheet name="Munka1" sheetId="12" r:id="rId7"/>
-    <sheet name="Munka2" sheetId="13" r:id="rId8"/>
+    <sheet name="Munka3" sheetId="14" r:id="rId7"/>
+    <sheet name="Munka1" sheetId="12" r:id="rId8"/>
+    <sheet name="Munka2" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="453">
   <si>
     <t>Suffix</t>
   </si>
@@ -1349,6 +1350,42 @@
   </si>
   <si>
     <t>2365 MHz</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>8 GB</t>
+  </si>
+  <si>
+    <t>3200 MHz</t>
+  </si>
+  <si>
+    <t>16 GB</t>
+  </si>
+  <si>
+    <t>32 GB</t>
+  </si>
+  <si>
+    <t>3600  MHz</t>
+  </si>
+  <si>
+    <t>64 GB</t>
+  </si>
+  <si>
+    <t>128 GB</t>
+  </si>
+  <si>
+    <t>4800  MHz</t>
+  </si>
+  <si>
+    <t>5200  MHz</t>
+  </si>
+  <si>
+    <t>5600  MHz</t>
+  </si>
+  <si>
+    <t>6000  MHz</t>
   </si>
 </sst>
 </file>
@@ -1767,7 +1804,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1914,6 +1951,7 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -6022,7 +6060,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A20" sqref="A20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6544,6 +6582,2129 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>5</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>5</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11">
+        <v>5</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11">
+        <v>6</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11">
+        <v>6</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11">
+        <v>6</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11">
+        <v>6</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>1</v>
+      </c>
+      <c r="B14" s="11">
+        <v>8</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11">
+        <v>8</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11">
+        <v>8</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>1</v>
+      </c>
+      <c r="B17" s="11">
+        <v>8</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>1</v>
+      </c>
+      <c r="B18" s="11">
+        <v>8</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>1</v>
+      </c>
+      <c r="B19" s="11">
+        <v>8</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>1</v>
+      </c>
+      <c r="B20" s="11">
+        <v>15</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>1</v>
+      </c>
+      <c r="B21" s="11">
+        <v>15</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1</v>
+      </c>
+      <c r="F21" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>1</v>
+      </c>
+      <c r="B22" s="11">
+        <v>15</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1</v>
+      </c>
+      <c r="F22" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>1</v>
+      </c>
+      <c r="B23" s="11">
+        <v>15</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E23" s="15">
+        <v>1</v>
+      </c>
+      <c r="F23" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>1</v>
+      </c>
+      <c r="B24" s="11">
+        <v>15</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E24" s="15">
+        <v>1</v>
+      </c>
+      <c r="F24" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>1</v>
+      </c>
+      <c r="B25" s="11">
+        <v>15</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E25" s="15">
+        <v>1</v>
+      </c>
+      <c r="F25" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>1</v>
+      </c>
+      <c r="B26" s="11">
+        <v>5</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E26" s="15">
+        <v>2</v>
+      </c>
+      <c r="F26" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>1</v>
+      </c>
+      <c r="B27" s="11">
+        <v>5</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E27" s="15">
+        <v>2</v>
+      </c>
+      <c r="F27" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>1</v>
+      </c>
+      <c r="B28" s="11">
+        <v>5</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E28" s="15">
+        <v>2</v>
+      </c>
+      <c r="F28" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>1</v>
+      </c>
+      <c r="B29" s="11">
+        <v>5</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E29" s="15">
+        <v>2</v>
+      </c>
+      <c r="F29" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>1</v>
+      </c>
+      <c r="B30" s="11">
+        <v>5</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E30" s="15">
+        <v>2</v>
+      </c>
+      <c r="F30" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>1</v>
+      </c>
+      <c r="B31" s="11">
+        <v>5</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E31" s="15">
+        <v>2</v>
+      </c>
+      <c r="F31" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>1</v>
+      </c>
+      <c r="B32" s="11">
+        <v>6</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E32" s="15">
+        <v>2</v>
+      </c>
+      <c r="F32" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>1</v>
+      </c>
+      <c r="B33" s="11">
+        <v>6</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E33" s="15">
+        <v>2</v>
+      </c>
+      <c r="F33" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>1</v>
+      </c>
+      <c r="B34" s="11">
+        <v>6</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E34" s="15">
+        <v>2</v>
+      </c>
+      <c r="F34" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>1</v>
+      </c>
+      <c r="B35" s="11">
+        <v>6</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E35" s="15">
+        <v>2</v>
+      </c>
+      <c r="F35" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>1</v>
+      </c>
+      <c r="B36" s="11">
+        <v>6</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E36" s="15">
+        <v>2</v>
+      </c>
+      <c r="F36" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>1</v>
+      </c>
+      <c r="B37" s="11">
+        <v>6</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E37" s="15">
+        <v>2</v>
+      </c>
+      <c r="F37" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>1</v>
+      </c>
+      <c r="B38" s="11">
+        <v>8</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E38" s="15">
+        <v>2</v>
+      </c>
+      <c r="F38" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>1</v>
+      </c>
+      <c r="B39" s="11">
+        <v>8</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E39" s="15">
+        <v>2</v>
+      </c>
+      <c r="F39" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>1</v>
+      </c>
+      <c r="B40" s="11">
+        <v>8</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E40" s="15">
+        <v>2</v>
+      </c>
+      <c r="F40" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>1</v>
+      </c>
+      <c r="B41" s="11">
+        <v>8</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E41" s="15">
+        <v>2</v>
+      </c>
+      <c r="F41" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>1</v>
+      </c>
+      <c r="B42" s="11">
+        <v>8</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E42" s="15">
+        <v>2</v>
+      </c>
+      <c r="F42" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>1</v>
+      </c>
+      <c r="B43" s="11">
+        <v>8</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E43" s="15">
+        <v>2</v>
+      </c>
+      <c r="F43" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>1</v>
+      </c>
+      <c r="B44" s="11">
+        <v>15</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E44" s="15">
+        <v>2</v>
+      </c>
+      <c r="F44" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>1</v>
+      </c>
+      <c r="B45" s="11">
+        <v>15</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2</v>
+      </c>
+      <c r="F45" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>1</v>
+      </c>
+      <c r="B46" s="11">
+        <v>15</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E46" s="15">
+        <v>2</v>
+      </c>
+      <c r="F46" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>1</v>
+      </c>
+      <c r="B47" s="11">
+        <v>15</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E47" s="15">
+        <v>2</v>
+      </c>
+      <c r="F47" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>1</v>
+      </c>
+      <c r="B48" s="11">
+        <v>15</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E48" s="15">
+        <v>2</v>
+      </c>
+      <c r="F48" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>1</v>
+      </c>
+      <c r="B49" s="11">
+        <v>15</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E49" s="15">
+        <v>2</v>
+      </c>
+      <c r="F49" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>1</v>
+      </c>
+      <c r="B50" s="11">
+        <v>5</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E50" s="15">
+        <v>4</v>
+      </c>
+      <c r="F50" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>1</v>
+      </c>
+      <c r="B51" s="11">
+        <v>5</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E51" s="15">
+        <v>4</v>
+      </c>
+      <c r="F51" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>1</v>
+      </c>
+      <c r="B52" s="11">
+        <v>5</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E52" s="15">
+        <v>4</v>
+      </c>
+      <c r="F52" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>1</v>
+      </c>
+      <c r="B53" s="11">
+        <v>5</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E53" s="15">
+        <v>4</v>
+      </c>
+      <c r="F53" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>1</v>
+      </c>
+      <c r="B54" s="11">
+        <v>5</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E54" s="15">
+        <v>4</v>
+      </c>
+      <c r="F54" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>1</v>
+      </c>
+      <c r="B55" s="11">
+        <v>5</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E55" s="15">
+        <v>4</v>
+      </c>
+      <c r="F55" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>1</v>
+      </c>
+      <c r="B56" s="11">
+        <v>6</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E56" s="15">
+        <v>4</v>
+      </c>
+      <c r="F56" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>1</v>
+      </c>
+      <c r="B57" s="11">
+        <v>6</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E57" s="15">
+        <v>4</v>
+      </c>
+      <c r="F57" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>1</v>
+      </c>
+      <c r="B58" s="11">
+        <v>6</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E58" s="15">
+        <v>4</v>
+      </c>
+      <c r="F58" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>1</v>
+      </c>
+      <c r="B59" s="11">
+        <v>6</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E59" s="15">
+        <v>4</v>
+      </c>
+      <c r="F59" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <v>1</v>
+      </c>
+      <c r="B60" s="11">
+        <v>6</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E60" s="15">
+        <v>4</v>
+      </c>
+      <c r="F60" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
+        <v>1</v>
+      </c>
+      <c r="B61" s="11">
+        <v>6</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E61" s="15">
+        <v>4</v>
+      </c>
+      <c r="F61" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
+        <v>1</v>
+      </c>
+      <c r="B62" s="11">
+        <v>8</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E62" s="15">
+        <v>4</v>
+      </c>
+      <c r="F62" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
+        <v>1</v>
+      </c>
+      <c r="B63" s="11">
+        <v>8</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E63" s="15">
+        <v>4</v>
+      </c>
+      <c r="F63" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>1</v>
+      </c>
+      <c r="B64" s="11">
+        <v>8</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E64" s="15">
+        <v>4</v>
+      </c>
+      <c r="F64" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <v>1</v>
+      </c>
+      <c r="B65" s="11">
+        <v>8</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E65" s="15">
+        <v>4</v>
+      </c>
+      <c r="F65" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <v>1</v>
+      </c>
+      <c r="B66" s="11">
+        <v>8</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E66" s="15">
+        <v>4</v>
+      </c>
+      <c r="F66" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>1</v>
+      </c>
+      <c r="B67" s="11">
+        <v>8</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E67" s="15">
+        <v>4</v>
+      </c>
+      <c r="F67" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
+        <v>1</v>
+      </c>
+      <c r="B68" s="11">
+        <v>15</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E68" s="15">
+        <v>4</v>
+      </c>
+      <c r="F68" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
+        <v>1</v>
+      </c>
+      <c r="B69" s="11">
+        <v>15</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E69" s="15">
+        <v>4</v>
+      </c>
+      <c r="F69" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A70" s="11">
+        <v>1</v>
+      </c>
+      <c r="B70" s="11">
+        <v>15</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E70" s="15">
+        <v>4</v>
+      </c>
+      <c r="F70" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A71" s="11">
+        <v>1</v>
+      </c>
+      <c r="B71" s="11">
+        <v>15</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E71" s="15">
+        <v>4</v>
+      </c>
+      <c r="F71" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
+        <v>1</v>
+      </c>
+      <c r="B72" s="11">
+        <v>15</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E72" s="15">
+        <v>4</v>
+      </c>
+      <c r="F72" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A73" s="11">
+        <v>1</v>
+      </c>
+      <c r="B73" s="11">
+        <v>15</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E73" s="15">
+        <v>4</v>
+      </c>
+      <c r="F73" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A74" s="11">
+        <v>2</v>
+      </c>
+      <c r="B74" s="11">
+        <v>5</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="E74" s="15">
+        <v>1</v>
+      </c>
+      <c r="F74" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A75" s="11">
+        <v>2</v>
+      </c>
+      <c r="B75" s="11">
+        <v>5</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="E75" s="15">
+        <v>2</v>
+      </c>
+      <c r="F75" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
+        <v>2</v>
+      </c>
+      <c r="B76" s="11">
+        <v>5</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="E76" s="15">
+        <v>1</v>
+      </c>
+      <c r="F76" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A77" s="11">
+        <v>2</v>
+      </c>
+      <c r="B77" s="11">
+        <v>5</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E77" s="15">
+        <v>2</v>
+      </c>
+      <c r="F77" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A78" s="11">
+        <v>2</v>
+      </c>
+      <c r="B78" s="11">
+        <v>5</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="E78" s="15">
+        <v>1</v>
+      </c>
+      <c r="F78" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A79" s="11">
+        <v>2</v>
+      </c>
+      <c r="B79" s="11">
+        <v>5</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="E79" s="15">
+        <v>2</v>
+      </c>
+      <c r="F79" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A80" s="11">
+        <v>2</v>
+      </c>
+      <c r="B80" s="11">
+        <v>5</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="E80" s="15">
+        <v>1</v>
+      </c>
+      <c r="F80" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A81" s="11">
+        <v>2</v>
+      </c>
+      <c r="B81" s="11">
+        <v>5</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E81" s="15">
+        <v>2</v>
+      </c>
+      <c r="F81" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A82" s="11">
+        <v>2</v>
+      </c>
+      <c r="B82" s="11">
+        <v>6</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="E82" s="15">
+        <v>1</v>
+      </c>
+      <c r="F82" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A83" s="11">
+        <v>2</v>
+      </c>
+      <c r="B83" s="11">
+        <v>6</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="E83" s="15">
+        <v>2</v>
+      </c>
+      <c r="F83" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A84" s="11">
+        <v>2</v>
+      </c>
+      <c r="B84" s="11">
+        <v>6</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="E84" s="15">
+        <v>1</v>
+      </c>
+      <c r="F84" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A85" s="11">
+        <v>2</v>
+      </c>
+      <c r="B85" s="11">
+        <v>6</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E85" s="15">
+        <v>2</v>
+      </c>
+      <c r="F85" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A86" s="11">
+        <v>2</v>
+      </c>
+      <c r="B86" s="11">
+        <v>6</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="E86" s="15">
+        <v>1</v>
+      </c>
+      <c r="F86" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A87" s="11">
+        <v>2</v>
+      </c>
+      <c r="B87" s="11">
+        <v>6</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="E87" s="15">
+        <v>2</v>
+      </c>
+      <c r="F87" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A88" s="11">
+        <v>2</v>
+      </c>
+      <c r="B88" s="11">
+        <v>6</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="E88" s="15">
+        <v>1</v>
+      </c>
+      <c r="F88" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A89" s="11">
+        <v>2</v>
+      </c>
+      <c r="B89" s="11">
+        <v>6</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E89" s="15">
+        <v>2</v>
+      </c>
+      <c r="F89" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A90" s="11">
+        <v>2</v>
+      </c>
+      <c r="B90" s="11">
+        <v>8</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="E90" s="15">
+        <v>1</v>
+      </c>
+      <c r="F90" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A91" s="11">
+        <v>2</v>
+      </c>
+      <c r="B91" s="11">
+        <v>8</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="E91" s="15">
+        <v>2</v>
+      </c>
+      <c r="F91" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A92" s="11">
+        <v>2</v>
+      </c>
+      <c r="B92" s="11">
+        <v>8</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="E92" s="15">
+        <v>1</v>
+      </c>
+      <c r="F92" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A93" s="11">
+        <v>2</v>
+      </c>
+      <c r="B93" s="11">
+        <v>8</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E93" s="15">
+        <v>2</v>
+      </c>
+      <c r="F93" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A94" s="11">
+        <v>2</v>
+      </c>
+      <c r="B94" s="11">
+        <v>8</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="E94" s="15">
+        <v>1</v>
+      </c>
+      <c r="F94" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A95" s="11">
+        <v>2</v>
+      </c>
+      <c r="B95" s="11">
+        <v>8</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="E95" s="15">
+        <v>2</v>
+      </c>
+      <c r="F95" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A96" s="11">
+        <v>2</v>
+      </c>
+      <c r="B96" s="11">
+        <v>8</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="E96" s="15">
+        <v>1</v>
+      </c>
+      <c r="F96" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A97" s="11">
+        <v>2</v>
+      </c>
+      <c r="B97" s="11">
+        <v>8</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E97" s="15">
+        <v>2</v>
+      </c>
+      <c r="F97" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A98" s="11">
+        <v>2</v>
+      </c>
+      <c r="B98" s="11">
+        <v>15</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="E98" s="15">
+        <v>1</v>
+      </c>
+      <c r="F98" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A99" s="11">
+        <v>2</v>
+      </c>
+      <c r="B99" s="11">
+        <v>15</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="E99" s="15">
+        <v>2</v>
+      </c>
+      <c r="F99" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A100" s="11">
+        <v>2</v>
+      </c>
+      <c r="B100" s="11">
+        <v>15</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="E100" s="15">
+        <v>1</v>
+      </c>
+      <c r="F100" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A101" s="11">
+        <v>2</v>
+      </c>
+      <c r="B101" s="11">
+        <v>15</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E101" s="15">
+        <v>2</v>
+      </c>
+      <c r="F101" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A102" s="11">
+        <v>2</v>
+      </c>
+      <c r="B102" s="11">
+        <v>15</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="E102" s="15">
+        <v>1</v>
+      </c>
+      <c r="F102" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A103" s="11">
+        <v>2</v>
+      </c>
+      <c r="B103" s="11">
+        <v>15</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="E103" s="15">
+        <v>2</v>
+      </c>
+      <c r="F103" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A104" s="11">
+        <v>2</v>
+      </c>
+      <c r="B104" s="11">
+        <v>15</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="E104" s="15">
+        <v>1</v>
+      </c>
+      <c r="F104" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A105" s="11">
+        <v>2</v>
+      </c>
+      <c r="B105" s="11">
+        <v>15</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E105" s="15">
+        <v>2</v>
+      </c>
+      <c r="F105" s="15">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -6809,11 +8970,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>

--- a/project.xlsx
+++ b/project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Intel" sheetId="4" r:id="rId1"/>
@@ -14,8 +14,11 @@
     <sheet name="Cooler" sheetId="8" r:id="rId5"/>
     <sheet name="Munka4" sheetId="11" r:id="rId6"/>
     <sheet name="Munka3" sheetId="14" r:id="rId7"/>
-    <sheet name="Munka1" sheetId="12" r:id="rId8"/>
-    <sheet name="Munka2" sheetId="13" r:id="rId9"/>
+    <sheet name="Munka5" sheetId="15" r:id="rId8"/>
+    <sheet name="Munka6" sheetId="16" r:id="rId9"/>
+    <sheet name="Munka1" sheetId="12" r:id="rId10"/>
+    <sheet name="Munka2" sheetId="13" r:id="rId11"/>
+    <sheet name="Munka7" sheetId="17" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="589">
   <si>
     <t>Suffix</t>
   </si>
@@ -1386,13 +1389,421 @@
   </si>
   <si>
     <t>6000  MHz</t>
+  </si>
+  <si>
+    <t>storage_type_id</t>
+  </si>
+  <si>
+    <t>Manufacturer_id </t>
+  </si>
+  <si>
+    <t>Barracuda</t>
+  </si>
+  <si>
+    <t>1 TB</t>
+  </si>
+  <si>
+    <t>7200RPM</t>
+  </si>
+  <si>
+    <t>2 TB</t>
+  </si>
+  <si>
+    <t>4 TB</t>
+  </si>
+  <si>
+    <t>10 TB</t>
+  </si>
+  <si>
+    <t>20 TB</t>
+  </si>
+  <si>
+    <t>IronWolf Pro</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>870 EVO</t>
+  </si>
+  <si>
+    <t>256 GB</t>
+  </si>
+  <si>
+    <t>560/530 MB/s</t>
+  </si>
+  <si>
+    <t>512 GB</t>
+  </si>
+  <si>
+    <t>860 PRO</t>
+  </si>
+  <si>
+    <t>A400</t>
+  </si>
+  <si>
+    <t>240 GB</t>
+  </si>
+  <si>
+    <t>500/450 MB/s</t>
+  </si>
+  <si>
+    <t>480 GB</t>
+  </si>
+  <si>
+    <t>960 GB</t>
+  </si>
+  <si>
+    <t>1.92 TB</t>
+  </si>
+  <si>
+    <t>DC450R</t>
+  </si>
+  <si>
+    <t>550/500 MB/s</t>
+  </si>
+  <si>
+    <t>970 EVO</t>
+  </si>
+  <si>
+    <t>250 GB</t>
+  </si>
+  <si>
+    <t>3400/2500 MB/s</t>
+  </si>
+  <si>
+    <t>500 GB</t>
+  </si>
+  <si>
+    <t>970 EVO PLUS</t>
+  </si>
+  <si>
+    <t>3500/3300 MB/s</t>
+  </si>
+  <si>
+    <t>970 PRO</t>
+  </si>
+  <si>
+    <t>3500/2700 MB/s</t>
+  </si>
+  <si>
+    <t>980 PRO</t>
+  </si>
+  <si>
+    <t>7000/5100 MB/s</t>
+  </si>
+  <si>
+    <t>ROG Strix</t>
+  </si>
+  <si>
+    <t>650W</t>
+  </si>
+  <si>
+    <t>80+ Gold</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>750W</t>
+  </si>
+  <si>
+    <t>ROG Thor 850</t>
+  </si>
+  <si>
+    <t>850W</t>
+  </si>
+  <si>
+    <t>80+ Platinum</t>
+  </si>
+  <si>
+    <t>ROG Strix G</t>
+  </si>
+  <si>
+    <t>1000W</t>
+  </si>
+  <si>
+    <t>ROG Thor 1200P</t>
+  </si>
+  <si>
+    <t>1200W</t>
+  </si>
+  <si>
+    <t>System Power 9</t>
+  </si>
+  <si>
+    <t>600W</t>
+  </si>
+  <si>
+    <t>80+ Bronze</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>700W</t>
+  </si>
+  <si>
+    <t>Power Zone</t>
+  </si>
+  <si>
+    <t>Pure Power 11</t>
+  </si>
+  <si>
+    <t>Semi</t>
+  </si>
+  <si>
+    <t>Straight Power 11</t>
+  </si>
+  <si>
+    <t>Dark Power Pro</t>
+  </si>
+  <si>
+    <t>Dark Power 12</t>
+  </si>
+  <si>
+    <t>80+ Titanium</t>
+  </si>
+  <si>
+    <t>Dark Power Pro 12</t>
+  </si>
+  <si>
+    <t>1500W</t>
+  </si>
+  <si>
+    <t>TXM</t>
+  </si>
+  <si>
+    <t>CXM</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>950W</t>
+  </si>
+  <si>
+    <t>RMx (2021)</t>
+  </si>
+  <si>
+    <t>RM  (2021)</t>
+  </si>
+  <si>
+    <t>RMx</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>AXi</t>
+  </si>
+  <si>
+    <t>HXi</t>
+  </si>
+  <si>
+    <t>HX</t>
+  </si>
+  <si>
+    <t>1600W</t>
+  </si>
+  <si>
+    <t>BQ</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>SuperNOVA G6</t>
+  </si>
+  <si>
+    <t>SuperNOVA GA</t>
+  </si>
+  <si>
+    <t>SuperNOVA Classified</t>
+  </si>
+  <si>
+    <t>PQ</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>SuperNOVA P5</t>
+  </si>
+  <si>
+    <t>SuperNOVA T2</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>Max_Length</t>
+  </si>
+  <si>
+    <t>TUF Gaming GT301</t>
+  </si>
+  <si>
+    <t>320 mm</t>
+  </si>
+  <si>
+    <t>GX 601</t>
+  </si>
+  <si>
+    <t>450 mm</t>
+  </si>
+  <si>
+    <t>ROG Strix Helios</t>
+  </si>
+  <si>
+    <t>Z11</t>
+  </si>
+  <si>
+    <t>Silent Base 802</t>
+  </si>
+  <si>
+    <t>282 mm</t>
+  </si>
+  <si>
+    <t>Pure Base 600</t>
+  </si>
+  <si>
+    <t>Silent Base 800</t>
+  </si>
+  <si>
+    <t>290 mm</t>
+  </si>
+  <si>
+    <t>Dark Base 900</t>
+  </si>
+  <si>
+    <t>323 mm</t>
+  </si>
+  <si>
+    <t>MasterCase H500</t>
+  </si>
+  <si>
+    <t>410 mm</t>
+  </si>
+  <si>
+    <t>MasterBox Pro 5 RGB</t>
+  </si>
+  <si>
+    <t>Cosmos C700M</t>
+  </si>
+  <si>
+    <t>Trooper Se</t>
+  </si>
+  <si>
+    <t>322 mm</t>
+  </si>
+  <si>
+    <t>Cosmos II</t>
+  </si>
+  <si>
+    <t>385 mm</t>
+  </si>
+  <si>
+    <t>Elite 130</t>
+  </si>
+  <si>
+    <t>343 mm</t>
+  </si>
+  <si>
+    <t>MasterCase H100 ARGB</t>
+  </si>
+  <si>
+    <t>210 mm</t>
+  </si>
+  <si>
+    <t>MasterBox MB400L</t>
+  </si>
+  <si>
+    <t>344 mm</t>
+  </si>
+  <si>
+    <t>Elite 110</t>
+  </si>
+  <si>
+    <t>5000D AIRFLOW</t>
+  </si>
+  <si>
+    <t>420 mm</t>
+  </si>
+  <si>
+    <t>4000D</t>
+  </si>
+  <si>
+    <t>Obsidian 500D RGB SE</t>
+  </si>
+  <si>
+    <t>370 mm</t>
+  </si>
+  <si>
+    <t>1000D</t>
+  </si>
+  <si>
+    <t>400 mm</t>
+  </si>
+  <si>
+    <t>iCUE 7000X RGB</t>
+  </si>
+  <si>
+    <t>Crystal 280X RGB</t>
+  </si>
+  <si>
+    <t>300 mm</t>
+  </si>
+  <si>
+    <t>250 D</t>
+  </si>
+  <si>
+    <t>Air 240</t>
+  </si>
+  <si>
+    <t>330 mm</t>
+  </si>
+  <si>
+    <t>H510 Elite</t>
+  </si>
+  <si>
+    <t>381 mm</t>
+  </si>
+  <si>
+    <t>H710</t>
+  </si>
+  <si>
+    <t>413 mm</t>
+  </si>
+  <si>
+    <t>CRFT 08 H510 Valhalla</t>
+  </si>
+  <si>
+    <t>H700 Nuka-Cola</t>
+  </si>
+  <si>
+    <t>H510i Phantom Gaming</t>
+  </si>
+  <si>
+    <t>Phantom 630</t>
+  </si>
+  <si>
+    <t>507 mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1496,6 +1907,13 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF252525"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1804,7 +2222,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1952,6 +2370,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -3800,6 +4222,3087 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="11"/>
+    <col min="9" max="9" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="15">
+        <v>1200</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1700</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="C2:C13">
+    <sortCondition ref="C1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1050</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="I2" s="11">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="I3" s="11">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1060</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="I4" s="11">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1060</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="I5" s="11">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1070</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="I6" s="11">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="I7" s="11">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1080</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="I8" s="11">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="I9" s="11">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1050</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="I10" s="11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="I11" s="11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1060</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="I12" s="11">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1060</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="I13" s="11">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1070</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="I14" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="I15" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1080</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="I16" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>9</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="I17" s="11">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>2</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1650</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="I18" s="11">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="I19" s="11">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>9</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1650</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I20" s="11">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>9</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="I21" s="11">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1660</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="I22" s="11">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="I23" s="11">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="I24" s="11">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>9</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D25" s="15">
+        <v>1660</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="I25" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>9</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="I26" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>9</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="I27" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>12</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D28" s="15">
+        <v>1060</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="I28" s="11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>12</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D29" s="15">
+        <v>1070</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="I29" s="11">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>12</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="I30" s="11">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>12</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D31" s="15">
+        <v>1080</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="I31" s="11">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>12</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="I32" s="11">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11">
+        <v>2</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D33" s="15">
+        <v>2060</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="I33" s="11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11">
+        <v>2</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="I34" s="11">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11">
+        <v>2</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D35" s="15">
+        <v>2070</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="I35" s="11">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11">
+        <v>2</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="I36" s="11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11">
+        <v>2</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D37" s="15">
+        <v>2080</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="I37" s="11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11">
+        <v>2</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="I38" s="11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11">
+        <v>2</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="I39" s="11">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11">
+        <v>9</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D40" s="15">
+        <v>2060</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="I40" s="11">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>40</v>
+      </c>
+      <c r="B41" s="11">
+        <v>9</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="I41" s="11">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>41</v>
+      </c>
+      <c r="B42" s="11">
+        <v>9</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D42" s="15">
+        <v>2070</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="I42" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>42</v>
+      </c>
+      <c r="B43" s="11">
+        <v>9</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="I43" s="11">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>43</v>
+      </c>
+      <c r="B44" s="11">
+        <v>9</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D44" s="15">
+        <v>2080</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="I44" s="11">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>44</v>
+      </c>
+      <c r="B45" s="11">
+        <v>9</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="I45" s="11">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+      <c r="B46" s="11">
+        <v>9</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="I46" s="11">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>46</v>
+      </c>
+      <c r="B47" s="11">
+        <v>2</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D47" s="15">
+        <v>3060</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="I47" s="11">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+      <c r="B48" s="11">
+        <v>2</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="I48" s="11">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11">
+        <v>2</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D49" s="15">
+        <v>3070</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="I49" s="11">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>49</v>
+      </c>
+      <c r="B50" s="11">
+        <v>2</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="I50" s="11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11">
+        <v>2</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D51" s="15">
+        <v>3080</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="I51" s="11">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>51</v>
+      </c>
+      <c r="B52" s="11">
+        <v>2</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="I52" s="11">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>52</v>
+      </c>
+      <c r="B53" s="11">
+        <v>2</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D53" s="15">
+        <v>3090</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="I53" s="11">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>53</v>
+      </c>
+      <c r="B54" s="11">
+        <v>9</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D54" s="15">
+        <v>3060</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="I54" s="11">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>54</v>
+      </c>
+      <c r="B55" s="11">
+        <v>9</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="I55" s="11">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>55</v>
+      </c>
+      <c r="B56" s="11">
+        <v>9</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D56" s="15">
+        <v>3070</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="I56" s="11">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>56</v>
+      </c>
+      <c r="B57" s="11">
+        <v>9</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="I57" s="11">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>57</v>
+      </c>
+      <c r="B58" s="11">
+        <v>9</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D58" s="15">
+        <v>3080</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="I58" s="11">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>58</v>
+      </c>
+      <c r="B59" s="11">
+        <v>9</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="I59" s="11">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <v>59</v>
+      </c>
+      <c r="B60" s="11">
+        <v>9</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D60" s="15">
+        <v>3090</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="I60" s="11">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
+        <v>60</v>
+      </c>
+      <c r="B61" s="11">
+        <v>2</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="I61" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
+        <v>61</v>
+      </c>
+      <c r="B62" s="11">
+        <v>2</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="I62" s="11">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
+        <v>62</v>
+      </c>
+      <c r="B63" s="11">
+        <v>2</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D63" s="15">
+        <v>5700</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="I63" s="11">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>63</v>
+      </c>
+      <c r="B64" s="11">
+        <v>2</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="I64" s="11">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <v>64</v>
+      </c>
+      <c r="B65" s="11">
+        <v>2</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D65" s="15">
+        <v>6600</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="I65" s="11">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <v>65</v>
+      </c>
+      <c r="B66" s="11">
+        <v>2</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="I66" s="11">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>66</v>
+      </c>
+      <c r="B67" s="11">
+        <v>2</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="I67" s="11">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
+        <v>67</v>
+      </c>
+      <c r="B68" s="11">
+        <v>2</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D68" s="15">
+        <v>6800</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="I68" s="11">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
+        <v>68</v>
+      </c>
+      <c r="B69" s="11">
+        <v>2</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="I69" s="11">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A70" s="11">
+        <v>69</v>
+      </c>
+      <c r="B70" s="11">
+        <v>2</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="I70" s="11">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A71" s="11">
+        <v>70</v>
+      </c>
+      <c r="B71" s="11">
+        <v>9</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="I71" s="11">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
+        <v>71</v>
+      </c>
+      <c r="B72" s="11">
+        <v>9</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="I72" s="11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A73" s="11">
+        <v>72</v>
+      </c>
+      <c r="B73" s="11">
+        <v>9</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D73" s="15">
+        <v>5700</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="I73" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A74" s="11">
+        <v>73</v>
+      </c>
+      <c r="B74" s="11">
+        <v>9</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="I74" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A75" s="11">
+        <v>74</v>
+      </c>
+      <c r="B75" s="11">
+        <v>9</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D75" s="15">
+        <v>6600</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="I75" s="11">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
+        <v>75</v>
+      </c>
+      <c r="B76" s="11">
+        <v>9</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="I76" s="11">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A77" s="11">
+        <v>76</v>
+      </c>
+      <c r="B77" s="11">
+        <v>9</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="I77" s="11">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A78" s="11">
+        <v>77</v>
+      </c>
+      <c r="B78" s="11">
+        <v>9</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D78" s="15">
+        <v>6800</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="I78" s="11">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A79" s="11">
+        <v>78</v>
+      </c>
+      <c r="B79" s="11">
+        <v>9</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="I79" s="11">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A80" s="11">
+        <v>79</v>
+      </c>
+      <c r="B80" s="11">
+        <v>9</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="I80" s="11">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>4</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>4</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>4</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>4</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>4</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>4</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>564</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>4</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>5</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>5</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>5</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>5</v>
+      </c>
+      <c r="C24" s="66" t="s">
+        <v>575</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>5</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>5</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>13</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>13</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>13</v>
+      </c>
+      <c r="C29" s="66" t="s">
+        <v>584</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>13</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>13</v>
+      </c>
+      <c r="C31" s="66" t="s">
+        <v>586</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>13</v>
+      </c>
+      <c r="C32" s="66" t="s">
+        <v>587</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>588</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R52"/>
@@ -6585,7 +10088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -8706,321 +12209,1126 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="11"/>
-    <col min="9" max="9" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15">
-        <v>1200</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="I1" s="11" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>16</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15">
+        <v>16</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15">
+        <v>16</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15">
+        <v>16</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15">
+        <v>16</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15">
+        <v>16</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15">
+        <v>16</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15">
+        <v>16</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1</v>
+      </c>
+      <c r="C12" s="15">
+        <v>17</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="C13" s="15">
+        <v>17</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15">
+        <v>17</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15">
+        <v>17</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1</v>
+      </c>
+      <c r="C16" s="15">
+        <v>17</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1</v>
+      </c>
+      <c r="C17" s="15">
+        <v>17</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
+      <c r="C18" s="15">
+        <v>17</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1</v>
+      </c>
+      <c r="C19" s="15">
+        <v>17</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>1</v>
+      </c>
+      <c r="C20" s="15">
+        <v>17</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1</v>
+      </c>
+      <c r="C21" s="15">
+        <v>17</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2</v>
+      </c>
+      <c r="C22" s="15">
+        <v>18</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2</v>
+      </c>
+      <c r="C23" s="15">
+        <v>18</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2</v>
+      </c>
+      <c r="C24" s="15">
+        <v>18</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>2</v>
+      </c>
+      <c r="C25" s="15">
+        <v>18</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>2</v>
+      </c>
+      <c r="C26" s="15">
+        <v>18</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>2</v>
+      </c>
+      <c r="C27" s="15">
+        <v>18</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>2</v>
+      </c>
+      <c r="C28" s="15">
+        <v>18</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>2</v>
+      </c>
+      <c r="C29" s="15">
+        <v>18</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>2</v>
+      </c>
+      <c r="C30" s="15">
+        <v>15</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>2</v>
+      </c>
+      <c r="C31" s="15">
+        <v>15</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>2</v>
+      </c>
+      <c r="C32" s="15">
+        <v>15</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11">
+        <v>2</v>
+      </c>
+      <c r="C33" s="15">
+        <v>15</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11">
+        <v>2</v>
+      </c>
+      <c r="C34" s="15">
+        <v>15</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11">
+        <v>2</v>
+      </c>
+      <c r="C35" s="15">
+        <v>15</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <v>1700</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="B36" s="11">
+        <v>2</v>
+      </c>
+      <c r="C36" s="15">
+        <v>15</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="B37" s="11">
+        <v>2</v>
+      </c>
+      <c r="C37" s="15">
+        <v>15</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="B38" s="11">
+        <v>2</v>
+      </c>
+      <c r="C38" s="15">
+        <v>18</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="B39" s="11">
+        <v>2</v>
+      </c>
+      <c r="C39" s="15">
+        <v>18</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="I6" s="11" t="s">
+      <c r="B40" s="11">
+        <v>2</v>
+      </c>
+      <c r="C40" s="15">
+        <v>18</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="I7" s="11" t="s">
+      <c r="B41" s="11">
+        <v>2</v>
+      </c>
+      <c r="C41" s="15">
+        <v>18</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="I8" s="11" t="s">
+      <c r="B42" s="11">
+        <v>3</v>
+      </c>
+      <c r="C42" s="15">
+        <v>18</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="I9" s="11" t="s">
+      <c r="B43" s="11">
+        <v>3</v>
+      </c>
+      <c r="C43" s="15">
+        <v>18</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="I10" s="11" t="s">
+      <c r="B44" s="11">
+        <v>3</v>
+      </c>
+      <c r="C44" s="15">
+        <v>18</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="I11" s="11" t="s">
+      <c r="B45" s="11">
+        <v>3</v>
+      </c>
+      <c r="C45" s="15">
+        <v>18</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="I12" s="11" t="s">
+      <c r="B46" s="11">
+        <v>3</v>
+      </c>
+      <c r="C46" s="15">
+        <v>18</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I14" s="11" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I15" s="11" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I16" s="11" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I17" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I18" s="11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I19" s="11" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I20" s="11" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I21" s="11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I22" s="11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I23" s="11" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I24" s="11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I25" s="11" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I26" s="11" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I27" s="11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I28" s="11" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I29" s="11" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I30" s="11" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I31" s="11" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I32" s="11" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I33" s="11" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I34" s="11" t="s">
-        <v>320</v>
+      <c r="B47" s="11">
+        <v>3</v>
+      </c>
+      <c r="C47" s="15">
+        <v>18</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+      <c r="B48" s="11">
+        <v>3</v>
+      </c>
+      <c r="C48" s="15">
+        <v>18</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11">
+        <v>3</v>
+      </c>
+      <c r="C49" s="15">
+        <v>18</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>49</v>
+      </c>
+      <c r="B50" s="11">
+        <v>3</v>
+      </c>
+      <c r="C50" s="15">
+        <v>18</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11">
+        <v>3</v>
+      </c>
+      <c r="C51" s="15">
+        <v>18</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>51</v>
+      </c>
+      <c r="B52" s="11">
+        <v>3</v>
+      </c>
+      <c r="C52" s="15">
+        <v>18</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>52</v>
+      </c>
+      <c r="B53" s="11">
+        <v>3</v>
+      </c>
+      <c r="C53" s="15">
+        <v>18</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="C2:C13">
-    <sortCondition ref="C1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>255</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>240</v>
+        <v>251</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>252</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -9028,28 +13336,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D2" s="15">
-        <v>1050</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>327</v>
+        <v>488</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="I2" s="11">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -9057,28 +13356,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>326</v>
+        <v>488</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>332</v>
+        <v>492</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="I3" s="11">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -9086,28 +13376,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D4" s="15">
-        <v>1060</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>335</v>
+        <v>493</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="I4" s="11">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -9115,28 +13396,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1060</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>338</v>
+        <v>496</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="I5" s="11">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -9144,2171 +13416,996 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D6" s="15">
-        <v>1070</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>341</v>
+        <v>498</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="I6" s="11">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>326</v>
+        <v>500</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>341</v>
+        <v>501</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>502</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="I7" s="11">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D8" s="15">
-        <v>1080</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>341</v>
+        <v>500</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>502</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="I8" s="11">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>326</v>
+        <v>505</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>348</v>
+        <v>494</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>502</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="I9" s="11">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D10" s="15">
-        <v>1050</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>327</v>
+        <v>505</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>502</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="I10" s="11">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" s="11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>326</v>
+        <v>506</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>332</v>
+        <v>501</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="I11" s="11">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D12" s="15">
-        <v>1060</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>335</v>
+        <v>506</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="I12" s="11">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D13" s="15">
-        <v>1060</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>338</v>
+        <v>508</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="I13" s="11">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D14" s="15">
-        <v>1070</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>341</v>
+        <v>508</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="I14" s="11">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>326</v>
+        <v>509</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>341</v>
+        <v>489</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="I15" s="11">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
       <c r="B16" s="11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D16" s="15">
-        <v>1080</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>341</v>
+        <v>509</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="I16" s="11">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
       <c r="B17" s="11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>326</v>
+        <v>509</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>348</v>
+        <v>494</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="I17" s="11">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
       <c r="B18" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D18" s="15">
-        <v>1650</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>332</v>
+        <v>509</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="I18" s="11">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="B19" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>326</v>
+        <v>510</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>332</v>
+        <v>492</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>511</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="I19" s="11">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D20" s="15">
-        <v>1650</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>332</v>
+        <v>510</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>511</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="I20" s="11">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="B21" s="11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>326</v>
+        <v>510</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>332</v>
+        <v>497</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>511</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="I21" s="11">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="B22" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D22" s="15">
-        <v>1660</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>338</v>
+        <v>512</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>511</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="I22" s="11">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>22</v>
       </c>
       <c r="B23" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>326</v>
+        <v>512</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>338</v>
+        <v>513</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>511</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="I23" s="11">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>23</v>
       </c>
       <c r="B24" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>326</v>
+        <v>514</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>338</v>
+        <v>489</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>502</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="I24" s="11">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>24</v>
       </c>
       <c r="B25" s="11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D25" s="15">
-        <v>1660</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>338</v>
+        <v>514</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>502</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="I25" s="11">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>25</v>
       </c>
       <c r="B26" s="11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>326</v>
+        <v>515</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>338</v>
+        <v>494</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>502</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="I26" s="11">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>26</v>
       </c>
       <c r="B27" s="11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>326</v>
+        <v>516</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>338</v>
+        <v>517</v>
+      </c>
+      <c r="E27" s="65" t="s">
+        <v>502</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="I27" s="11">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>27</v>
       </c>
       <c r="B28" s="11">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D28" s="15">
-        <v>1060</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>338</v>
+        <v>518</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="I28" s="11">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>28</v>
       </c>
       <c r="B29" s="11">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D29" s="15">
-        <v>1070</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>341</v>
+        <v>519</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="I29" s="11">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>29</v>
       </c>
       <c r="B30" s="11">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>326</v>
+        <v>520</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>341</v>
+        <v>497</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="I30" s="11">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>30</v>
       </c>
       <c r="B31" s="11">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D31" s="15">
-        <v>1080</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>341</v>
+        <v>521</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="I31" s="11">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>31</v>
       </c>
       <c r="B32" s="11">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>348</v>
+        <v>492</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="I32" s="11">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>32</v>
       </c>
       <c r="B33" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D33" s="15">
-        <v>2060</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>338</v>
+        <v>523</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="I33" s="11">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>33</v>
       </c>
       <c r="B34" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>381</v>
+        <v>524</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>341</v>
+        <v>497</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="I34" s="11">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>34</v>
       </c>
       <c r="B35" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D35" s="15">
-        <v>2070</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>341</v>
+        <v>524</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="I35" s="11">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>35</v>
       </c>
       <c r="B36" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>381</v>
+        <v>521</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>341</v>
+        <v>494</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>511</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="I36" s="11">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>36</v>
       </c>
       <c r="B37" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D37" s="15">
-        <v>2080</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>341</v>
+        <v>521</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>511</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="I37" s="11">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>37</v>
       </c>
       <c r="B38" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>381</v>
+        <v>522</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>341</v>
+        <v>513</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>511</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="I38" s="11">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>38</v>
       </c>
       <c r="B39" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>381</v>
+        <v>522</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>348</v>
+        <v>525</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>511</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="I39" s="11">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>39</v>
       </c>
       <c r="B40" s="11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D40" s="15">
-        <v>2060</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>338</v>
+        <v>526</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="E40" s="65" t="s">
+        <v>502</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="I40" s="11">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>40</v>
       </c>
       <c r="B41" s="11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>381</v>
+        <v>527</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>341</v>
+        <v>504</v>
+      </c>
+      <c r="E41" s="65" t="s">
+        <v>502</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="I41" s="11">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>41</v>
       </c>
       <c r="B42" s="11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D42" s="15">
-        <v>2070</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>341</v>
+        <v>528</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="E42" s="65" t="s">
+        <v>502</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="I42" s="11">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>42</v>
       </c>
       <c r="B43" s="11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>381</v>
+        <v>529</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>341</v>
+        <v>494</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>502</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="I43" s="11">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>43</v>
       </c>
       <c r="B44" s="11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D44" s="15">
-        <v>2080</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>341</v>
+        <v>530</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="I44" s="11">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>44</v>
       </c>
       <c r="B45" s="11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>381</v>
+        <v>531</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>341</v>
+        <v>494</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="I45" s="11">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>45</v>
       </c>
       <c r="B46" s="11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>381</v>
+        <v>530</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>348</v>
+        <v>497</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="I46" s="11">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>46</v>
       </c>
       <c r="B47" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D47" s="15">
-        <v>3060</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>396</v>
+        <v>532</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="I47" s="11">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>47</v>
       </c>
       <c r="B48" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>381</v>
+        <v>533</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>341</v>
+        <v>492</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="I48" s="11">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>48</v>
       </c>
       <c r="B49" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D49" s="15">
-        <v>3070</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>341</v>
+        <v>534</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="I49" s="11">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>49</v>
       </c>
       <c r="B50" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>381</v>
+        <v>535</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>341</v>
+        <v>497</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="I50" s="11">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>50</v>
       </c>
       <c r="B51" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D51" s="15">
-        <v>3080</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>404</v>
+        <v>534</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="I51" s="11">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>51</v>
       </c>
       <c r="B52" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>381</v>
+        <v>536</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>396</v>
+        <v>492</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>511</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="I52" s="11">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>52</v>
       </c>
       <c r="B53" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D53" s="15">
-        <v>3090</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>407</v>
+        <v>536</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>511</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="I53" s="11">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>53</v>
       </c>
       <c r="B54" s="11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D54" s="15">
-        <v>3060</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>396</v>
+        <v>537</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>511</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="I54" s="11">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>54</v>
       </c>
       <c r="B55" s="11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>381</v>
+        <v>537</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>341</v>
+        <v>525</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>511</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="I55" s="11">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="11">
-        <v>55</v>
-      </c>
-      <c r="B56" s="11">
-        <v>9</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D56" s="15">
-        <v>3070</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="I56" s="11">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="11">
-        <v>56</v>
-      </c>
-      <c r="B57" s="11">
-        <v>9</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="I57" s="11">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="11">
-        <v>57</v>
-      </c>
-      <c r="B58" s="11">
-        <v>9</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D58" s="15">
-        <v>3080</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="I58" s="11">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="11">
-        <v>58</v>
-      </c>
-      <c r="B59" s="11">
-        <v>9</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="I59" s="11">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A60" s="11">
-        <v>59</v>
-      </c>
-      <c r="B60" s="11">
-        <v>9</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D60" s="15">
-        <v>3090</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="I60" s="11">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A61" s="11">
-        <v>60</v>
-      </c>
-      <c r="B61" s="11">
-        <v>2</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="I61" s="11">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A62" s="11">
-        <v>61</v>
-      </c>
-      <c r="B62" s="11">
-        <v>2</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="I62" s="11">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A63" s="11">
-        <v>62</v>
-      </c>
-      <c r="B63" s="11">
-        <v>2</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="D63" s="15">
-        <v>5700</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="I63" s="11">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A64" s="11">
-        <v>63</v>
-      </c>
-      <c r="B64" s="11">
-        <v>2</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="I64" s="11">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="11">
-        <v>64</v>
-      </c>
-      <c r="B65" s="11">
-        <v>2</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="D65" s="15">
-        <v>6600</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="I65" s="11">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A66" s="11">
-        <v>65</v>
-      </c>
-      <c r="B66" s="11">
-        <v>2</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="I66" s="11">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A67" s="11">
-        <v>66</v>
-      </c>
-      <c r="B67" s="11">
-        <v>2</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="I67" s="11">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="11">
-        <v>67</v>
-      </c>
-      <c r="B68" s="11">
-        <v>2</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="D68" s="15">
-        <v>6800</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="I68" s="11">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="11">
-        <v>68</v>
-      </c>
-      <c r="B69" s="11">
-        <v>2</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="F69" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="I69" s="11">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A70" s="11">
-        <v>69</v>
-      </c>
-      <c r="B70" s="11">
-        <v>2</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="F70" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="I70" s="11">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="11">
-        <v>70</v>
-      </c>
-      <c r="B71" s="11">
-        <v>9</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="I71" s="11">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72" s="11">
-        <v>71</v>
-      </c>
-      <c r="B72" s="11">
-        <v>9</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="H72" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="I72" s="11">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A73" s="11">
-        <v>72</v>
-      </c>
-      <c r="B73" s="11">
-        <v>9</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="D73" s="15">
-        <v>5700</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="H73" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="I73" s="11">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74" s="11">
-        <v>73</v>
-      </c>
-      <c r="B74" s="11">
-        <v>9</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="F74" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="H74" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="I74" s="11">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A75" s="11">
-        <v>74</v>
-      </c>
-      <c r="B75" s="11">
-        <v>9</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="D75" s="15">
-        <v>6600</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="I75" s="11">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A76" s="11">
-        <v>75</v>
-      </c>
-      <c r="B76" s="11">
-        <v>9</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="I76" s="11">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="11">
-        <v>76</v>
-      </c>
-      <c r="B77" s="11">
-        <v>9</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="H77" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="I77" s="11">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A78" s="11">
-        <v>77</v>
-      </c>
-      <c r="B78" s="11">
-        <v>9</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="D78" s="15">
-        <v>6800</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="H78" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="I78" s="11">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" s="11">
-        <v>78</v>
-      </c>
-      <c r="B79" s="11">
-        <v>9</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="H79" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="I79" s="11">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A80" s="11">
-        <v>79</v>
-      </c>
-      <c r="B80" s="11">
-        <v>9</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="H80" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="I80" s="11">
-        <v>322</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/project.xlsx
+++ b/project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Intel" sheetId="4" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="CPU" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
     <sheet name="Cooler" sheetId="8" r:id="rId5"/>
-    <sheet name="Munka4" sheetId="11" r:id="rId6"/>
-    <sheet name="Munka3" sheetId="14" r:id="rId7"/>
-    <sheet name="Munka5" sheetId="15" r:id="rId8"/>
-    <sheet name="Munka6" sheetId="16" r:id="rId9"/>
-    <sheet name="Munka1" sheetId="12" r:id="rId10"/>
-    <sheet name="Munka2" sheetId="13" r:id="rId11"/>
-    <sheet name="Munka7" sheetId="17" r:id="rId12"/>
+    <sheet name="old" sheetId="11" r:id="rId6"/>
+    <sheet name="Munka4" sheetId="18" r:id="rId7"/>
+    <sheet name="Munka3" sheetId="14" r:id="rId8"/>
+    <sheet name="Munka5" sheetId="15" r:id="rId9"/>
+    <sheet name="Munka6" sheetId="16" r:id="rId10"/>
+    <sheet name="Munka1" sheetId="12" r:id="rId11"/>
+    <sheet name="Munka2" sheetId="13" r:id="rId12"/>
+    <sheet name="Munka7" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="638">
   <si>
     <t>Suffix</t>
   </si>
@@ -1797,6 +1798,153 @@
   </si>
   <si>
     <t>507 mm</t>
+  </si>
+  <si>
+    <t>m.2_comp</t>
+  </si>
+  <si>
+    <t>PRIME H410M-K</t>
+  </si>
+  <si>
+    <t>H410M S2</t>
+  </si>
+  <si>
+    <t>EX-H610M-V3 D4</t>
+  </si>
+  <si>
+    <t>GA-A320M-HD2</t>
+  </si>
+  <si>
+    <t>A320M PRO-VD PLUS</t>
+  </si>
+  <si>
+    <t>B350M PRO-VD PLUS</t>
+  </si>
+  <si>
+    <t>PRIME B460-PLUS</t>
+  </si>
+  <si>
+    <t>PRIME B560-PLUS</t>
+  </si>
+  <si>
+    <t>PRIME H470-PLUS</t>
+  </si>
+  <si>
+    <t>PRIME H570-PLUS</t>
+  </si>
+  <si>
+    <t>ROG MAXIMUS XII EXTREME</t>
+  </si>
+  <si>
+    <t>ROG STRIX Z490-E</t>
+  </si>
+  <si>
+    <t>ROG Maximus XIII Extreme</t>
+  </si>
+  <si>
+    <t>ROG STRIX Z590-E GAMING</t>
+  </si>
+  <si>
+    <t>Z490 AORUS XTREME</t>
+  </si>
+  <si>
+    <t>Z590 AORUS XTREME</t>
+  </si>
+  <si>
+    <t>B460 AORUS PRO AC</t>
+  </si>
+  <si>
+    <t>B560M AORUS PRO</t>
+  </si>
+  <si>
+    <t>MEG Z590 GODLIKE</t>
+  </si>
+  <si>
+    <t>MAG B560 TOMAHAWK</t>
+  </si>
+  <si>
+    <t>TUF GAMING B660M-PLUS</t>
+  </si>
+  <si>
+    <t>ROG MAXIMUS Z690 EXTREME</t>
+  </si>
+  <si>
+    <t>B660M AORUS Pro</t>
+  </si>
+  <si>
+    <t>Z690 AORUS MASTER</t>
+  </si>
+  <si>
+    <t>MAG B660M MORTAR</t>
+  </si>
+  <si>
+    <t>MAG Z690 TORPEDO</t>
+  </si>
+  <si>
+    <t>ROG STRIX Z690-A GAMING</t>
+  </si>
+  <si>
+    <t>Z690 GAMING X</t>
+  </si>
+  <si>
+    <t>Z690 AORUS ELITE</t>
+  </si>
+  <si>
+    <t>MPG Z690 EDGE</t>
+  </si>
+  <si>
+    <t>ROG STRIX X470-F</t>
+  </si>
+  <si>
+    <t>ROG Crosshair VII Hero</t>
+  </si>
+  <si>
+    <t>ROG Strix X570-E</t>
+  </si>
+  <si>
+    <t>ROG Crosshair VIII Dark Hero</t>
+  </si>
+  <si>
+    <t>ROG STRIX B450-E</t>
+  </si>
+  <si>
+    <t>ROG STRIX B550-E</t>
+  </si>
+  <si>
+    <t>B450M DS3H</t>
+  </si>
+  <si>
+    <t>B550 AORUS ELITE </t>
+  </si>
+  <si>
+    <t>X470 AORUS ULTRA GAMING</t>
+  </si>
+  <si>
+    <t>X570 AORUS XTREME</t>
+  </si>
+  <si>
+    <t>MEG X570S ACE MAX</t>
+  </si>
+  <si>
+    <t>MPG B550 GAMING CARBON</t>
+  </si>
+  <si>
+    <t>ROG ZENITH II EXTREME ALPHA</t>
+  </si>
+  <si>
+    <t>ROG STRIX TRX40-XE</t>
+  </si>
+  <si>
+    <t>TRX40 AORUS XTREME XL</t>
+  </si>
+  <si>
+    <t>TRX40 AORUS MASTER</t>
+  </si>
+  <si>
+    <t>Creator TRX40</t>
+  </si>
+  <si>
+    <t>TRX40 PRO 10G</t>
   </si>
 </sst>
 </file>
@@ -4224,6 +4372,1129 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>502</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>502</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>502</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>502</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>3</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>3</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>3</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>3</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>3</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>3</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>3</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>3</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>3</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>3</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>3</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>3</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>5</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>502</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>5</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>502</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>5</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>502</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>5</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="E27" s="65" t="s">
+        <v>502</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>2</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>5</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>5</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>5</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>5</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11">
+        <v>5</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11">
+        <v>5</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11">
+        <v>5</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11">
+        <v>5</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11">
+        <v>5</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11">
+        <v>5</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11">
+        <v>5</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11">
+        <v>7</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="E40" s="65" t="s">
+        <v>502</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>40</v>
+      </c>
+      <c r="B41" s="11">
+        <v>7</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="E41" s="65" t="s">
+        <v>502</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>41</v>
+      </c>
+      <c r="B42" s="11">
+        <v>7</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="E42" s="65" t="s">
+        <v>502</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>42</v>
+      </c>
+      <c r="B43" s="11">
+        <v>7</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>502</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>43</v>
+      </c>
+      <c r="B44" s="11">
+        <v>7</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>44</v>
+      </c>
+      <c r="B45" s="11">
+        <v>7</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+      <c r="B46" s="11">
+        <v>7</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>46</v>
+      </c>
+      <c r="B47" s="11">
+        <v>7</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+      <c r="B48" s="11">
+        <v>7</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11">
+        <v>7</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>49</v>
+      </c>
+      <c r="B50" s="11">
+        <v>7</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11">
+        <v>7</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>51</v>
+      </c>
+      <c r="B52" s="11">
+        <v>7</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>52</v>
+      </c>
+      <c r="B53" s="11">
+        <v>7</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>53</v>
+      </c>
+      <c r="B54" s="11">
+        <v>7</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>54</v>
+      </c>
+      <c r="B55" s="11">
+        <v>7</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4488,7 +5759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I80"/>
   <sheetViews>
@@ -6834,12 +8105,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9563,7 +10834,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:E20"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10085,6 +11356,1009 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15">
+        <v>15</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15">
+        <v>9</v>
+      </c>
+      <c r="D3" s="15">
+        <v>15</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15">
+        <v>2</v>
+      </c>
+      <c r="D4" s="15">
+        <v>19</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15">
+        <v>9</v>
+      </c>
+      <c r="D5" s="15">
+        <v>5</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15">
+        <v>11</v>
+      </c>
+      <c r="D6" s="15">
+        <v>5</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15">
+        <v>11</v>
+      </c>
+      <c r="D7" s="15">
+        <v>8</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15">
+        <v>2</v>
+      </c>
+      <c r="D8" s="15">
+        <v>10</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15">
+        <v>2</v>
+      </c>
+      <c r="D9" s="15">
+        <v>13</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15">
+        <v>2</v>
+      </c>
+      <c r="D10" s="15">
+        <v>16</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15">
+        <v>2</v>
+      </c>
+      <c r="D11" s="15">
+        <v>18</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="15">
+        <v>2</v>
+      </c>
+      <c r="D12" s="15">
+        <v>32</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15">
+        <v>1</v>
+      </c>
+      <c r="C13" s="15">
+        <v>2</v>
+      </c>
+      <c r="D13" s="15">
+        <v>32</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2</v>
+      </c>
+      <c r="D14" s="15">
+        <v>33</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="15">
+        <v>33</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15">
+        <v>1</v>
+      </c>
+      <c r="C16" s="15">
+        <v>9</v>
+      </c>
+      <c r="D16" s="15">
+        <v>32</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15">
+        <v>1</v>
+      </c>
+      <c r="C17" s="15">
+        <v>9</v>
+      </c>
+      <c r="D17" s="15">
+        <v>33</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15">
+        <v>1</v>
+      </c>
+      <c r="C18" s="15">
+        <v>9</v>
+      </c>
+      <c r="D18" s="15">
+        <v>10</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15">
+        <v>1</v>
+      </c>
+      <c r="C19" s="15">
+        <v>9</v>
+      </c>
+      <c r="D19" s="15">
+        <v>13</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15">
+        <v>1</v>
+      </c>
+      <c r="C20" s="15">
+        <v>11</v>
+      </c>
+      <c r="D20" s="15">
+        <v>33</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15">
+        <v>1</v>
+      </c>
+      <c r="C21" s="15">
+        <v>11</v>
+      </c>
+      <c r="D21" s="15">
+        <v>13</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15">
+        <v>2</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2</v>
+      </c>
+      <c r="D22" s="15">
+        <v>14</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1</v>
+      </c>
+      <c r="F22" s="66" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15">
+        <v>2</v>
+      </c>
+      <c r="C23" s="15">
+        <v>2</v>
+      </c>
+      <c r="D23" s="15">
+        <v>34</v>
+      </c>
+      <c r="E23" s="15">
+        <v>1</v>
+      </c>
+      <c r="F23" s="66" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15">
+        <v>2</v>
+      </c>
+      <c r="C24" s="15">
+        <v>9</v>
+      </c>
+      <c r="D24" s="15">
+        <v>14</v>
+      </c>
+      <c r="E24" s="15">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15">
+        <v>2</v>
+      </c>
+      <c r="C25" s="15">
+        <v>9</v>
+      </c>
+      <c r="D25" s="15">
+        <v>34</v>
+      </c>
+      <c r="E25" s="15">
+        <v>1</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15">
+        <v>2</v>
+      </c>
+      <c r="C26" s="15">
+        <v>11</v>
+      </c>
+      <c r="D26" s="15">
+        <v>14</v>
+      </c>
+      <c r="E26" s="15">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15">
+        <v>2</v>
+      </c>
+      <c r="C27" s="15">
+        <v>11</v>
+      </c>
+      <c r="D27" s="15">
+        <v>34</v>
+      </c>
+      <c r="E27" s="15">
+        <v>1</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15">
+        <v>2</v>
+      </c>
+      <c r="C28" s="15">
+        <v>2</v>
+      </c>
+      <c r="D28" s="15">
+        <v>34</v>
+      </c>
+      <c r="E28" s="15">
+        <v>1</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15">
+        <v>2</v>
+      </c>
+      <c r="C29" s="15">
+        <v>2</v>
+      </c>
+      <c r="D29" s="15">
+        <v>34</v>
+      </c>
+      <c r="E29" s="15">
+        <v>1</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15">
+        <v>2</v>
+      </c>
+      <c r="C30" s="15">
+        <v>9</v>
+      </c>
+      <c r="D30" s="15">
+        <v>34</v>
+      </c>
+      <c r="E30" s="15">
+        <v>1</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>30</v>
+      </c>
+      <c r="B31" s="15">
+        <v>2</v>
+      </c>
+      <c r="C31" s="15">
+        <v>11</v>
+      </c>
+      <c r="D31" s="15">
+        <v>34</v>
+      </c>
+      <c r="E31" s="15">
+        <v>1</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>31</v>
+      </c>
+      <c r="B32" s="15">
+        <v>3</v>
+      </c>
+      <c r="C32" s="15">
+        <v>2</v>
+      </c>
+      <c r="D32" s="15">
+        <v>30</v>
+      </c>
+      <c r="E32" s="15">
+        <v>1</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>32</v>
+      </c>
+      <c r="B33" s="15">
+        <v>3</v>
+      </c>
+      <c r="C33" s="15">
+        <v>2</v>
+      </c>
+      <c r="D33" s="15">
+        <v>30</v>
+      </c>
+      <c r="E33" s="15">
+        <v>1</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>33</v>
+      </c>
+      <c r="B34" s="15">
+        <v>3</v>
+      </c>
+      <c r="C34" s="15">
+        <v>2</v>
+      </c>
+      <c r="D34" s="15">
+        <v>31</v>
+      </c>
+      <c r="E34" s="15">
+        <v>1</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>34</v>
+      </c>
+      <c r="B35" s="15">
+        <v>3</v>
+      </c>
+      <c r="C35" s="15">
+        <v>2</v>
+      </c>
+      <c r="D35" s="15">
+        <v>31</v>
+      </c>
+      <c r="E35" s="15">
+        <v>1</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>35</v>
+      </c>
+      <c r="B36" s="15">
+        <v>3</v>
+      </c>
+      <c r="C36" s="15">
+        <v>2</v>
+      </c>
+      <c r="D36" s="15">
+        <v>9</v>
+      </c>
+      <c r="E36" s="15">
+        <v>1</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>36</v>
+      </c>
+      <c r="B37" s="15">
+        <v>3</v>
+      </c>
+      <c r="C37" s="15">
+        <v>2</v>
+      </c>
+      <c r="D37" s="15">
+        <v>11</v>
+      </c>
+      <c r="E37" s="15">
+        <v>1</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>37</v>
+      </c>
+      <c r="B38" s="15">
+        <v>3</v>
+      </c>
+      <c r="C38" s="15">
+        <v>9</v>
+      </c>
+      <c r="D38" s="15">
+        <v>9</v>
+      </c>
+      <c r="E38" s="15">
+        <v>1</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>38</v>
+      </c>
+      <c r="B39" s="15">
+        <v>3</v>
+      </c>
+      <c r="C39" s="15">
+        <v>9</v>
+      </c>
+      <c r="D39" s="15">
+        <v>11</v>
+      </c>
+      <c r="E39" s="15">
+        <v>1</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>39</v>
+      </c>
+      <c r="B40" s="15">
+        <v>3</v>
+      </c>
+      <c r="C40" s="15">
+        <v>9</v>
+      </c>
+      <c r="D40" s="15">
+        <v>30</v>
+      </c>
+      <c r="E40" s="15">
+        <v>1</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
+        <v>40</v>
+      </c>
+      <c r="B41" s="15">
+        <v>3</v>
+      </c>
+      <c r="C41" s="15">
+        <v>9</v>
+      </c>
+      <c r="D41" s="15">
+        <v>31</v>
+      </c>
+      <c r="E41" s="15">
+        <v>1</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>41</v>
+      </c>
+      <c r="B42" s="15">
+        <v>3</v>
+      </c>
+      <c r="C42" s="15">
+        <v>11</v>
+      </c>
+      <c r="D42" s="15">
+        <v>31</v>
+      </c>
+      <c r="E42" s="15">
+        <v>1</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
+        <v>42</v>
+      </c>
+      <c r="B43" s="15">
+        <v>3</v>
+      </c>
+      <c r="C43" s="15">
+        <v>11</v>
+      </c>
+      <c r="D43" s="15">
+        <v>11</v>
+      </c>
+      <c r="E43" s="15">
+        <v>1</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <v>43</v>
+      </c>
+      <c r="B44" s="15">
+        <v>4</v>
+      </c>
+      <c r="C44" s="15">
+        <v>1</v>
+      </c>
+      <c r="D44" s="15">
+        <v>1</v>
+      </c>
+      <c r="E44" s="15">
+        <v>1</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
+        <v>44</v>
+      </c>
+      <c r="B45" s="15">
+        <v>4</v>
+      </c>
+      <c r="C45" s="15">
+        <v>1</v>
+      </c>
+      <c r="D45" s="15">
+        <v>1</v>
+      </c>
+      <c r="E45" s="15">
+        <v>1</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
+        <v>45</v>
+      </c>
+      <c r="B46" s="15">
+        <v>4</v>
+      </c>
+      <c r="C46" s="15">
+        <v>9</v>
+      </c>
+      <c r="D46" s="15">
+        <v>1</v>
+      </c>
+      <c r="E46" s="15">
+        <v>1</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <v>46</v>
+      </c>
+      <c r="B47" s="15">
+        <v>4</v>
+      </c>
+      <c r="C47" s="15">
+        <v>9</v>
+      </c>
+      <c r="D47" s="15">
+        <v>1</v>
+      </c>
+      <c r="E47" s="15">
+        <v>1</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
+        <v>47</v>
+      </c>
+      <c r="B48" s="15">
+        <v>4</v>
+      </c>
+      <c r="C48" s="15">
+        <v>11</v>
+      </c>
+      <c r="D48" s="15">
+        <v>1</v>
+      </c>
+      <c r="E48" s="15">
+        <v>1</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A49" s="15">
+        <v>48</v>
+      </c>
+      <c r="B49" s="15">
+        <v>4</v>
+      </c>
+      <c r="C49" s="15">
+        <v>11</v>
+      </c>
+      <c r="D49" s="15">
+        <v>1</v>
+      </c>
+      <c r="E49" s="15">
+        <v>1</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>637</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F105"/>
   <sheetViews>
@@ -12207,7 +14481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
@@ -13288,1127 +15562,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>252</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11">
-        <v>2</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="E7" s="65" t="s">
-        <v>502</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11">
-        <v>3</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="E8" s="65" t="s">
-        <v>502</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11">
-        <v>3</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="E9" s="65" t="s">
-        <v>502</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11">
-        <v>3</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="E10" s="65" t="s">
-        <v>502</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11">
-        <v>3</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11">
-        <v>3</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11">
-        <v>3</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11">
-        <v>3</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11">
-        <v>3</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11">
-        <v>3</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11">
-        <v>3</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11">
-        <v>3</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11">
-        <v>3</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11">
-        <v>3</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11">
-        <v>3</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11">
-        <v>3</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11">
-        <v>3</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>23</v>
-      </c>
-      <c r="B24" s="11">
-        <v>5</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="E24" s="65" t="s">
-        <v>502</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11">
-        <v>5</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="E25" s="65" t="s">
-        <v>502</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11">
-        <v>5</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="E26" s="65" t="s">
-        <v>502</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
-        <v>26</v>
-      </c>
-      <c r="B27" s="11">
-        <v>5</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="E27" s="65" t="s">
-        <v>502</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <v>27</v>
-      </c>
-      <c r="B28" s="11">
-        <v>2</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
-        <v>28</v>
-      </c>
-      <c r="B29" s="11">
-        <v>5</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
-        <v>29</v>
-      </c>
-      <c r="B30" s="11">
-        <v>5</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
-        <v>30</v>
-      </c>
-      <c r="B31" s="11">
-        <v>5</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11">
-        <v>5</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
-        <v>32</v>
-      </c>
-      <c r="B33" s="11">
-        <v>5</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>33</v>
-      </c>
-      <c r="B34" s="11">
-        <v>5</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
-        <v>34</v>
-      </c>
-      <c r="B35" s="11">
-        <v>5</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
-        <v>35</v>
-      </c>
-      <c r="B36" s="11">
-        <v>5</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
-        <v>36</v>
-      </c>
-      <c r="B37" s="11">
-        <v>5</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
-        <v>37</v>
-      </c>
-      <c r="B38" s="11">
-        <v>5</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
-        <v>38</v>
-      </c>
-      <c r="B39" s="11">
-        <v>5</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
-        <v>39</v>
-      </c>
-      <c r="B40" s="11">
-        <v>7</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="E40" s="65" t="s">
-        <v>502</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
-        <v>40</v>
-      </c>
-      <c r="B41" s="11">
-        <v>7</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="E41" s="65" t="s">
-        <v>502</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
-        <v>41</v>
-      </c>
-      <c r="B42" s="11">
-        <v>7</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="E42" s="65" t="s">
-        <v>502</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
-        <v>42</v>
-      </c>
-      <c r="B43" s="11">
-        <v>7</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="E43" s="65" t="s">
-        <v>502</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
-        <v>43</v>
-      </c>
-      <c r="B44" s="11">
-        <v>7</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
-        <v>44</v>
-      </c>
-      <c r="B45" s="11">
-        <v>7</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
-        <v>45</v>
-      </c>
-      <c r="B46" s="11">
-        <v>7</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
-        <v>46</v>
-      </c>
-      <c r="B47" s="11">
-        <v>7</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
-        <v>47</v>
-      </c>
-      <c r="B48" s="11">
-        <v>7</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
-        <v>48</v>
-      </c>
-      <c r="B49" s="11">
-        <v>7</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
-        <v>49</v>
-      </c>
-      <c r="B50" s="11">
-        <v>7</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
-        <v>50</v>
-      </c>
-      <c r="B51" s="11">
-        <v>7</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="11">
-        <v>51</v>
-      </c>
-      <c r="B52" s="11">
-        <v>7</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="11">
-        <v>52</v>
-      </c>
-      <c r="B53" s="11">
-        <v>7</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
-        <v>53</v>
-      </c>
-      <c r="B54" s="11">
-        <v>7</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="11">
-        <v>54</v>
-      </c>
-      <c r="B55" s="11">
-        <v>7</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>